--- a/interconnection_testing.xlsx
+++ b/interconnection_testing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="152">
   <si>
     <t>-00011110+</t>
   </si>
@@ -52,16 +52,427 @@
     <t>-1001+-0011+</t>
   </si>
   <si>
-    <t>-1001+-1100+</t>
-  </si>
-  <si>
     <t>-0110+-0011+</t>
   </si>
   <si>
-    <t>-1100+-1001+</t>
+    <t>-0011+-1001+</t>
   </si>
   <si>
-    <t>-1100+-0110+</t>
+    <t>-+-(0110)0011+</t>
+  </si>
+  <si>
+    <t>-00(1001)11+</t>
+  </si>
+  <si>
+    <t>-11(0110)00+</t>
+  </si>
+  <si>
+    <t>-11(1001)00+</t>
+  </si>
+  <si>
+    <t>-00(0110)11+</t>
+  </si>
+  <si>
+    <t>-+-11(0110)00+</t>
+  </si>
+  <si>
+    <t>-0011(1001)+-+</t>
+  </si>
+  <si>
+    <t>-11(0110)00+-+</t>
+  </si>
+  <si>
+    <t>-11(0110)+-00+</t>
+  </si>
+  <si>
+    <t>-00(1001)+-11+</t>
+  </si>
+  <si>
+    <t>-00(0110)+-11+</t>
+  </si>
+  <si>
+    <t>-11(1001)+-00+</t>
+  </si>
+  <si>
+    <t>-11+-(1001)00+</t>
+  </si>
+  <si>
+    <t>-+-10010011+</t>
+  </si>
+  <si>
+    <t>-+-11000110+</t>
+  </si>
+  <si>
+    <t>-10010011+</t>
+  </si>
+  <si>
+    <t>-10011100+</t>
+  </si>
+  <si>
+    <t>-+-10011100+</t>
+  </si>
+  <si>
+    <t>-01101100+</t>
+  </si>
+  <si>
+    <t>-01100011+</t>
+  </si>
+  <si>
+    <t>-00111001+</t>
+  </si>
+  <si>
+    <t>-11000110+</t>
+  </si>
+  <si>
+    <t>-11001001+</t>
+  </si>
+  <si>
+    <t>-00110110+</t>
+  </si>
+  <si>
+    <t>-00011011+</t>
+  </si>
+  <si>
+    <t>-10000111+</t>
+  </si>
+  <si>
+    <t>-10110001+</t>
+  </si>
+  <si>
+    <t>-00100111+</t>
+  </si>
+  <si>
+    <t>-01110010+</t>
+  </si>
+  <si>
+    <t>-+-11010010+</t>
+  </si>
+  <si>
+    <t>-+-11100100+</t>
+  </si>
+  <si>
+    <t>-+-11100001+</t>
+  </si>
+  <si>
+    <t>-10110100+</t>
+  </si>
+  <si>
+    <t>-+-01001110+</t>
+  </si>
+  <si>
+    <t>-00101101+</t>
+  </si>
+  <si>
+    <t>-+-01110010+</t>
+  </si>
+  <si>
+    <t>-11100001+</t>
+  </si>
+  <si>
+    <t>-11010010+</t>
+  </si>
+  <si>
+    <t>-01111000+</t>
+  </si>
+  <si>
+    <t>-10001101+</t>
+  </si>
+  <si>
+    <t>-+-00011011+</t>
+  </si>
+  <si>
+    <t>-+-10001101+</t>
+  </si>
+  <si>
+    <t>-11100100+</t>
+  </si>
+  <si>
+    <t>-11011000+</t>
+  </si>
+  <si>
+    <t>-01001011+</t>
+  </si>
+  <si>
+    <t>-01001110+</t>
+  </si>
+  <si>
+    <t>-10011100+-+</t>
+  </si>
+  <si>
+    <t>-01101100+-+</t>
+  </si>
+  <si>
+    <t>-01100011+-+</t>
+  </si>
+  <si>
+    <t>-11100100+-+</t>
+  </si>
+  <si>
+    <t>-00101101+-+</t>
+  </si>
+  <si>
+    <t>-11010010+-+</t>
+  </si>
+  <si>
+    <t>-11100001+-+</t>
+  </si>
+  <si>
+    <t>-0111+-0010+</t>
+  </si>
+  <si>
+    <t>-0100+-1110+</t>
+  </si>
+  <si>
+    <t>-1110+-0100+</t>
+  </si>
+  <si>
+    <t>-0010+-1101+</t>
+  </si>
+  <si>
+    <t>-1101+-0010+</t>
+  </si>
+  <si>
+    <t>-00(1101)+-10+</t>
+  </si>
+  <si>
+    <t>-11(0001)+-10+</t>
+  </si>
+  <si>
+    <t>-00(1011)+-01+</t>
+  </si>
+  <si>
+    <t>-10(1101)+-00+</t>
+  </si>
+  <si>
+    <t>-10(0001)+-11+</t>
+  </si>
+  <si>
+    <t>-01(0010)+-11+</t>
+  </si>
+  <si>
+    <t>-01(1011)+-00+</t>
+  </si>
+  <si>
+    <t>-100100+-11+</t>
+  </si>
+  <si>
+    <t>-011000+-11+</t>
+  </si>
+  <si>
+    <t>-11+-(0100)10+</t>
+  </si>
+  <si>
+    <t>-00+-(1110)01+</t>
+  </si>
+  <si>
+    <t>-11+-(1000)01+</t>
+  </si>
+  <si>
+    <t>-11+-011000+</t>
+  </si>
+  <si>
+    <t>-11+-000110+</t>
+  </si>
+  <si>
+    <t>-00+-111001+</t>
+  </si>
+  <si>
+    <t>-11+-100100+</t>
+  </si>
+  <si>
+    <t>-00+-100111+</t>
+  </si>
+  <si>
+    <t>-00+-110110+</t>
+  </si>
+  <si>
+    <t>-00+-011110+</t>
+  </si>
+  <si>
+    <t>-11+-100001+</t>
+  </si>
+  <si>
+    <t>-11+-010010+</t>
+  </si>
+  <si>
+    <t>-10(1101)00+</t>
+  </si>
+  <si>
+    <t>-01(0010)11+</t>
+  </si>
+  <si>
+    <t>-10(0100)11+</t>
+  </si>
+  <si>
+    <t>-10(0001)11+</t>
+  </si>
+  <si>
+    <t>-01(1011)00+</t>
+  </si>
+  <si>
+    <t>-01(1000)11+</t>
+  </si>
+  <si>
+    <t>-01(1110)00+</t>
+  </si>
+  <si>
+    <t>-10(0111)00+</t>
+  </si>
+  <si>
+    <t>-00(1110)01+</t>
+  </si>
+  <si>
+    <t>-+-(1110)0001+</t>
+  </si>
+  <si>
+    <t>-+-01(1110)00+</t>
+  </si>
+  <si>
+    <t>-11(0001)10+</t>
+  </si>
+  <si>
+    <t>-+-01(1011)00+</t>
+  </si>
+  <si>
+    <t>-+-(0100)1011+</t>
+  </si>
+  <si>
+    <t>-11(0010)01+</t>
+  </si>
+  <si>
+    <t>-+-11(0001)10+</t>
+  </si>
+  <si>
+    <t>-+-(0010)0111+</t>
+  </si>
+  <si>
+    <t>-+-(0111)1000+</t>
+  </si>
+  <si>
+    <t>-+-(1011)0001+</t>
+  </si>
+  <si>
+    <t>-+-10(0001)11+</t>
+  </si>
+  <si>
+    <t>-00(1101)10+</t>
+  </si>
+  <si>
+    <t>-+-(1101)1000+</t>
+  </si>
+  <si>
+    <t>-+-(0001)1110+</t>
+  </si>
+  <si>
+    <t>-11(0100)10+</t>
+  </si>
+  <si>
+    <t>-00(1011)01+</t>
+  </si>
+  <si>
+    <t>-11(1000)01+</t>
+  </si>
+  <si>
+    <t>-0100(1011)+-+</t>
+  </si>
+  <si>
+    <t>-01(1011)00+-+</t>
+  </si>
+  <si>
+    <t>-10(0100)11+-+</t>
+  </si>
+  <si>
+    <t>-11(0001)10+-+</t>
+  </si>
+  <si>
+    <t>-1011(0001)+-+</t>
+  </si>
+  <si>
+    <t>-11(0100)10+-+</t>
+  </si>
+  <si>
+    <t>-1000(1101)+-+</t>
+  </si>
+  <si>
+    <t>-1000(0111)+-+</t>
+  </si>
+  <si>
+    <t>-00(1110)01+-+</t>
+  </si>
+  <si>
+    <t>-10(1101)00+-+</t>
+  </si>
+  <si>
+    <t>-01(1110)00+-+</t>
+  </si>
+  <si>
+    <t>-0010(0111)+-+</t>
+  </si>
+  <si>
+    <t>-10(0011)01+</t>
+  </si>
+  <si>
+    <t>-10(1100)01+</t>
+  </si>
+  <si>
+    <t>-01(1100)10+</t>
+  </si>
+  <si>
+    <t>-01(0011)10+</t>
+  </si>
+  <si>
+    <t>-+-01(1100)10+</t>
+  </si>
+  <si>
+    <t>-1001(0011)+-+</t>
+  </si>
+  <si>
+    <t>-1001(1100)+-+</t>
+  </si>
+  <si>
+    <t>-10(0011)01+-+</t>
+  </si>
+  <si>
+    <t>-01(0011)10+-+</t>
+  </si>
+  <si>
+    <t>-010011+-10+</t>
+  </si>
+  <si>
+    <t>-001101+-10+</t>
+  </si>
+  <si>
+    <t>-001011+-01+</t>
+  </si>
+  <si>
+    <t>-000111+-10+</t>
+  </si>
+  <si>
+    <t>-110001+-10+</t>
+  </si>
+  <si>
+    <t>-111000+-01+</t>
+  </si>
+  <si>
+    <t>-110010+-01+</t>
+  </si>
+  <si>
+    <t>-01(0011)+-10+</t>
+  </si>
+  <si>
+    <t>-01+-001011+</t>
+  </si>
+  <si>
+    <t>-01+-110010+</t>
+  </si>
+  <si>
+    <t>-10+-110001+</t>
+  </si>
+  <si>
+    <t>-10+-000111+</t>
+  </si>
+  <si>
+    <t>-01+-(0011)10+</t>
   </si>
 </sst>
 </file>
@@ -35644,13 +36055,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:EO4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:145">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -35666,8 +36077,425 @@
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:145">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -35678,16 +36506,433 @@
         <v>8.801120388643609</v>
       </c>
       <c r="D2">
-        <v>8.801120388643609</v>
+        <v>8.788755512621808</v>
       </c>
       <c r="E2">
-        <v>8.788755512621808</v>
+        <v>8.001250091340133</v>
       </c>
       <c r="F2">
-        <v>8.788755512621808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8.001250091338749</v>
+      </c>
+      <c r="G2">
+        <v>8.001250091338749</v>
+      </c>
+      <c r="H2">
+        <v>8.001250091338749</v>
+      </c>
+      <c r="I2">
+        <v>8.001250091338749</v>
+      </c>
+      <c r="J2">
+        <v>8.001250091338287</v>
+      </c>
+      <c r="K2">
+        <v>7.984416186743372</v>
+      </c>
+      <c r="L2">
+        <v>7.98441618674291</v>
+      </c>
+      <c r="M2">
+        <v>5.861708947088221</v>
+      </c>
+      <c r="N2">
+        <v>5.861708947088221</v>
+      </c>
+      <c r="O2">
+        <v>5.861708947088221</v>
+      </c>
+      <c r="P2">
+        <v>5.861708947088221</v>
+      </c>
+      <c r="Q2">
+        <v>5.822102573298681</v>
+      </c>
+      <c r="R2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="S2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="T2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="U2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="V2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="W2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="X2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="Y2">
+        <v>5.332393298877041</v>
+      </c>
+      <c r="Z2">
+        <v>5.332393298877041</v>
+      </c>
+      <c r="AA2">
+        <v>5.332393298877041</v>
+      </c>
+      <c r="AB2">
+        <v>5.332393298877041</v>
+      </c>
+      <c r="AC2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AD2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AE2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AF2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AG2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AH2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AI2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AJ2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AK2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AL2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AM2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AN2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AO2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AP2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AQ2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AR2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AS2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AT2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AU2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AV2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AW2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AX2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AY2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="AZ2">
+        <v>5.328386870950171</v>
+      </c>
+      <c r="BA2">
+        <v>5.328386870950171</v>
+      </c>
+      <c r="BB2">
+        <v>5.328386870950171</v>
+      </c>
+      <c r="BC2">
+        <v>5.328386870948934</v>
+      </c>
+      <c r="BD2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="BE2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="BF2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="BG2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="BH2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="BI2">
+        <v>5.328316008943515</v>
+      </c>
+      <c r="BJ2">
+        <v>5.328316008943515</v>
+      </c>
+      <c r="BK2">
+        <v>5.328316008943515</v>
+      </c>
+      <c r="BL2">
+        <v>4.534951375588803</v>
+      </c>
+      <c r="BM2">
+        <v>4.534951375588803</v>
+      </c>
+      <c r="BN2">
+        <v>4.534951375588803</v>
+      </c>
+      <c r="BO2">
+        <v>4.516146415032845</v>
+      </c>
+      <c r="BP2">
+        <v>4.516146415032845</v>
+      </c>
+      <c r="BQ2">
+        <v>4.516146415032845</v>
+      </c>
+      <c r="BR2">
+        <v>4.51614641503254</v>
+      </c>
+      <c r="BS2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="BT2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="BU2">
+        <v>4.482102099013621</v>
+      </c>
+      <c r="BV2">
+        <v>4.482102099013621</v>
+      </c>
+      <c r="BW2">
+        <v>4.482102099013621</v>
+      </c>
+      <c r="BX2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="BY2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="BZ2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="CA2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="CB2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="CC2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="CD2">
+        <v>4.482100137025443</v>
+      </c>
+      <c r="CE2">
+        <v>4.482100137025443</v>
+      </c>
+      <c r="CF2">
+        <v>4.482100137025443</v>
+      </c>
+      <c r="CG2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CH2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CI2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CJ2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CK2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CL2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CM2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CN2">
+        <v>4.10818043817293</v>
+      </c>
+      <c r="CO2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CP2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CQ2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CR2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CS2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CT2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CU2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CV2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CW2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CX2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CY2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="CZ2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="DA2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="DB2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="DC2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="DD2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="DE2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="DF2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="DG2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="DH2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DI2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DJ2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DK2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DL2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DM2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DN2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DO2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DP2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="DQ2">
+        <v>4.104247074434896</v>
+      </c>
+      <c r="DR2">
+        <v>4.104247074434896</v>
+      </c>
+      <c r="DS2">
+        <v>4.104247074433951</v>
+      </c>
+      <c r="DT2">
+        <v>3.907866429488499</v>
+      </c>
+      <c r="DU2">
+        <v>3.907866429488499</v>
+      </c>
+      <c r="DV2">
+        <v>3.907866429488499</v>
+      </c>
+      <c r="DW2">
+        <v>3.907866429488499</v>
+      </c>
+      <c r="DX2">
+        <v>3.907866429487128</v>
+      </c>
+      <c r="DY2">
+        <v>3.904178273638084</v>
+      </c>
+      <c r="DZ2">
+        <v>3.904178273638084</v>
+      </c>
+      <c r="EA2">
+        <v>3.904178273637174</v>
+      </c>
+      <c r="EB2">
+        <v>3.904178273637174</v>
+      </c>
+      <c r="EC2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="ED2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="EE2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="EF2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="EG2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="EH2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="EI2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="EJ2">
+        <v>2.535748417970078</v>
+      </c>
+      <c r="EK2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="EL2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="EM2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="EN2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="EO2">
+        <v>2.52819889594343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:145">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -35701,13 +36946,430 @@
         <v>1.310000000000001</v>
       </c>
       <c r="E3">
-        <v>1.310000000000001</v>
+        <v>2.030000000000001</v>
       </c>
       <c r="F3">
-        <v>1.310000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="G3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="H3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="I3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="L3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.6800000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.6800000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.6800000000000004</v>
+      </c>
+      <c r="P3">
+        <v>0.6800000000000004</v>
+      </c>
+      <c r="Q3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="R3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="S3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="T3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="U3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="V3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="W3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="X3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="Y3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="Z3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AA3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AB3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AC3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AD3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AE3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AF3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AG3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AH3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AI3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AJ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AK3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AL3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AM3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AN3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AO3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AP3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AQ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AR3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AS3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AT3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AU3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AV3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AW3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AX3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AY3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="AZ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BA3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BB3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BC3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BD3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BE3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BF3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BG3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="BH3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="BI3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="BJ3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="BK3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="BL3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BM3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BN3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BO3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BP3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BQ3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BR3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BS3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BT3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BU3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BV3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BW3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BX3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BY3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BZ3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CA3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CB3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CC3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CD3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CE3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CF3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="CG3">
+        <v>2.08</v>
+      </c>
+      <c r="CH3">
+        <v>2.08</v>
+      </c>
+      <c r="CI3">
+        <v>2.08</v>
+      </c>
+      <c r="CJ3">
+        <v>2.08</v>
+      </c>
+      <c r="CK3">
+        <v>2.08</v>
+      </c>
+      <c r="CL3">
+        <v>2.08</v>
+      </c>
+      <c r="CM3">
+        <v>2.08</v>
+      </c>
+      <c r="CN3">
+        <v>2.08</v>
+      </c>
+      <c r="CO3">
+        <v>2.08</v>
+      </c>
+      <c r="CP3">
+        <v>2.08</v>
+      </c>
+      <c r="CQ3">
+        <v>2.08</v>
+      </c>
+      <c r="CR3">
+        <v>2.08</v>
+      </c>
+      <c r="CS3">
+        <v>2.08</v>
+      </c>
+      <c r="CT3">
+        <v>2.08</v>
+      </c>
+      <c r="CU3">
+        <v>2.08</v>
+      </c>
+      <c r="CV3">
+        <v>2.08</v>
+      </c>
+      <c r="CW3">
+        <v>2.08</v>
+      </c>
+      <c r="CX3">
+        <v>2.08</v>
+      </c>
+      <c r="CY3">
+        <v>2.08</v>
+      </c>
+      <c r="CZ3">
+        <v>2.08</v>
+      </c>
+      <c r="DA3">
+        <v>2.08</v>
+      </c>
+      <c r="DB3">
+        <v>2.08</v>
+      </c>
+      <c r="DC3">
+        <v>2.08</v>
+      </c>
+      <c r="DD3">
+        <v>2.08</v>
+      </c>
+      <c r="DE3">
+        <v>2.08</v>
+      </c>
+      <c r="DF3">
+        <v>2.08</v>
+      </c>
+      <c r="DG3">
+        <v>2.08</v>
+      </c>
+      <c r="DH3">
+        <v>2.08</v>
+      </c>
+      <c r="DI3">
+        <v>2.08</v>
+      </c>
+      <c r="DJ3">
+        <v>2.08</v>
+      </c>
+      <c r="DK3">
+        <v>2.08</v>
+      </c>
+      <c r="DL3">
+        <v>2.08</v>
+      </c>
+      <c r="DM3">
+        <v>2.08</v>
+      </c>
+      <c r="DN3">
+        <v>2.08</v>
+      </c>
+      <c r="DO3">
+        <v>2.08</v>
+      </c>
+      <c r="DP3">
+        <v>2.08</v>
+      </c>
+      <c r="DQ3">
+        <v>2.08</v>
+      </c>
+      <c r="DR3">
+        <v>2.08</v>
+      </c>
+      <c r="DS3">
+        <v>2.08</v>
+      </c>
+      <c r="DT3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="DU3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="DV3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="DW3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="DX3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="DY3">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="DZ3">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="EA3">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="EB3">
+        <v>2.000000000000001</v>
+      </c>
+      <c r="EC3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="ED3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EE3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EF3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EG3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EH3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EI3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EJ3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EK3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EL3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EM3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EN3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="EO3">
+        <v>0.6600000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:145">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -35718,13 +37380,430 @@
         <v>6.718412510414964</v>
       </c>
       <c r="D4">
-        <v>6.718412510414964</v>
+        <v>6.7089736737571</v>
       </c>
       <c r="E4">
-        <v>6.7089736737571</v>
+        <v>3.941502508049325</v>
       </c>
       <c r="F4">
-        <v>6.7089736737571</v>
+        <v>3.941502508048643</v>
+      </c>
+      <c r="G4">
+        <v>3.941502508048643</v>
+      </c>
+      <c r="H4">
+        <v>3.941502508048643</v>
+      </c>
+      <c r="I4">
+        <v>3.941502508048643</v>
+      </c>
+      <c r="J4">
+        <v>3.941502508048416</v>
+      </c>
+      <c r="K4">
+        <v>3.933209944208556</v>
+      </c>
+      <c r="L4">
+        <v>3.933209944208329</v>
+      </c>
+      <c r="M4">
+        <v>8.620160216306203</v>
+      </c>
+      <c r="N4">
+        <v>8.620160216306203</v>
+      </c>
+      <c r="O4">
+        <v>8.620160216306203</v>
+      </c>
+      <c r="P4">
+        <v>8.620160216306203</v>
+      </c>
+      <c r="Q4">
+        <v>8.689705333281609</v>
+      </c>
+      <c r="R4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="S4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="T4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="U4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="V4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="W4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="X4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="Y4">
+        <v>1.960438712822452</v>
+      </c>
+      <c r="Z4">
+        <v>1.960438712822452</v>
+      </c>
+      <c r="AA4">
+        <v>1.960438712822452</v>
+      </c>
+      <c r="AB4">
+        <v>1.960438712822452</v>
+      </c>
+      <c r="AC4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AD4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AE4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AF4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AG4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AH4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AI4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AJ4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AK4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AL4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AM4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AN4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AO4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AP4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AQ4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AR4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AS4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AT4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AU4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AV4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AW4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AX4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AY4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="AZ4">
+        <v>1.958965761378749</v>
+      </c>
+      <c r="BA4">
+        <v>1.958965761378749</v>
+      </c>
+      <c r="BB4">
+        <v>1.958965761378749</v>
+      </c>
+      <c r="BC4">
+        <v>1.958965761378295</v>
+      </c>
+      <c r="BD4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="BE4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="BF4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="BG4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="BH4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="BI4">
+        <v>3.917879418340817</v>
+      </c>
+      <c r="BJ4">
+        <v>3.917879418340817</v>
+      </c>
+      <c r="BK4">
+        <v>3.917879418340817</v>
+      </c>
+      <c r="BL4">
+        <v>6.768584142669852</v>
+      </c>
+      <c r="BM4">
+        <v>6.768584142669852</v>
+      </c>
+      <c r="BN4">
+        <v>6.768584142669852</v>
+      </c>
+      <c r="BO4">
+        <v>6.740517037362451</v>
+      </c>
+      <c r="BP4">
+        <v>6.740517037362451</v>
+      </c>
+      <c r="BQ4">
+        <v>6.740517037362451</v>
+      </c>
+      <c r="BR4">
+        <v>6.740517037361997</v>
+      </c>
+      <c r="BS4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="BT4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="BU4">
+        <v>6.68970462539346</v>
+      </c>
+      <c r="BV4">
+        <v>6.68970462539346</v>
+      </c>
+      <c r="BW4">
+        <v>6.68970462539346</v>
+      </c>
+      <c r="BX4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="BY4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="BZ4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="CA4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="CB4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="CC4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="CD4">
+        <v>6.689701697052897</v>
+      </c>
+      <c r="CE4">
+        <v>6.689701697052897</v>
+      </c>
+      <c r="CF4">
+        <v>6.689701697052897</v>
+      </c>
+      <c r="CG4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CH4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CI4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CJ4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CK4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CL4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CM4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CN4">
+        <v>1.975086749121601</v>
+      </c>
+      <c r="CO4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CP4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CQ4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CR4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CS4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CT4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CU4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CV4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CW4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CX4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CY4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="CZ4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="DA4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="DB4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="DC4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="DD4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="DE4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="DF4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="DG4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="DH4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DI4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DJ4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DK4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DL4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DM4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DN4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DO4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DP4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="DQ4">
+        <v>1.973195708862931</v>
+      </c>
+      <c r="DR4">
+        <v>1.973195708862931</v>
+      </c>
+      <c r="DS4">
+        <v>1.973195708862477</v>
+      </c>
+      <c r="DT4">
+        <v>1.944212153974377</v>
+      </c>
+      <c r="DU4">
+        <v>1.944212153974377</v>
+      </c>
+      <c r="DV4">
+        <v>1.944212153974377</v>
+      </c>
+      <c r="DW4">
+        <v>1.944212153974377</v>
+      </c>
+      <c r="DX4">
+        <v>1.944212153973695</v>
+      </c>
+      <c r="DY4">
+        <v>1.952089136819041</v>
+      </c>
+      <c r="DZ4">
+        <v>1.952089136819041</v>
+      </c>
+      <c r="EA4">
+        <v>1.952089136818586</v>
+      </c>
+      <c r="EB4">
+        <v>1.952089136818586</v>
+      </c>
+      <c r="EC4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="ED4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="EE4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="EF4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="EG4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="EH4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="EI4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="EJ4">
+        <v>3.842043057530418</v>
+      </c>
+      <c r="EK4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="EL4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="EM4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="EN4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="EO4">
+        <v>3.830604387793073</v>
       </c>
     </row>
   </sheetData>

--- a/interconnection_testing.xlsx
+++ b/interconnection_testing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="223">
   <si>
     <t>-00011110+</t>
   </si>
@@ -49,19 +49,34 @@
     <t>I_MP</t>
   </si>
   <si>
+    <t>-0110+-0011+</t>
+  </si>
+  <si>
+    <t>-1001+-1100+</t>
+  </si>
+  <si>
+    <t>-0110+-1100+</t>
+  </si>
+  <si>
     <t>-1001+-0011+</t>
   </si>
   <si>
-    <t>-0110+-0011+</t>
+    <t>-1100+-0110+</t>
   </si>
   <si>
     <t>-0011+-1001+</t>
   </si>
   <si>
-    <t>-+-(0110)0011+</t>
+    <t>-+-(1001)1100+</t>
+  </si>
+  <si>
+    <t>-+-(0110)1100+</t>
   </si>
   <si>
     <t>-00(1001)11+</t>
+  </si>
+  <si>
+    <t>-00(0110)11+</t>
   </si>
   <si>
     <t>-11(0110)00+</t>
@@ -70,16 +85,28 @@
     <t>-11(1001)00+</t>
   </si>
   <si>
-    <t>-00(0110)11+</t>
-  </si>
-  <si>
     <t>-+-11(0110)00+</t>
   </si>
   <si>
-    <t>-0011(1001)+-+</t>
+    <t>-+-11(1001)00+</t>
+  </si>
+  <si>
+    <t>-+-00(0110)11+</t>
+  </si>
+  <si>
+    <t>-+-00(1001)11+</t>
+  </si>
+  <si>
+    <t>-1100(1001)+-+</t>
+  </si>
+  <si>
+    <t>-00(0110)11+-+</t>
   </si>
   <si>
     <t>-11(0110)00+-+</t>
+  </si>
+  <si>
+    <t>-11(1001)+-00+</t>
   </si>
   <si>
     <t>-11(0110)+-00+</t>
@@ -91,259 +118,343 @@
     <t>-00(0110)+-11+</t>
   </si>
   <si>
-    <t>-11(1001)+-00+</t>
+    <t>-00+-(0110)11+</t>
   </si>
   <si>
-    <t>-11+-(1001)00+</t>
+    <t>-10010011+</t>
+  </si>
+  <si>
+    <t>-+-11000110+</t>
+  </si>
+  <si>
+    <t>-+-10011100+</t>
+  </si>
+  <si>
+    <t>-+-00111001+</t>
+  </si>
+  <si>
+    <t>-01100011+</t>
   </si>
   <si>
     <t>-+-10010011+</t>
   </si>
   <si>
-    <t>-+-11000110+</t>
-  </si>
-  <si>
-    <t>-10010011+</t>
-  </si>
-  <si>
     <t>-10011100+</t>
   </si>
   <si>
-    <t>-+-10011100+</t>
+    <t>-+-01101100+</t>
   </si>
   <si>
     <t>-01101100+</t>
   </si>
   <si>
-    <t>-01100011+</t>
+    <t>-+-11001001+</t>
+  </si>
+  <si>
+    <t>-11001001+</t>
+  </si>
+  <si>
+    <t>-11000110+</t>
+  </si>
+  <si>
+    <t>-00110110+</t>
   </si>
   <si>
     <t>-00111001+</t>
   </si>
   <si>
-    <t>-11000110+</t>
+    <t>-11010010+</t>
   </si>
   <si>
-    <t>-11001001+</t>
-  </si>
-  <si>
-    <t>-00110110+</t>
+    <t>-11100001+</t>
   </si>
   <si>
     <t>-00011011+</t>
   </si>
   <si>
+    <t>-+-01111000+</t>
+  </si>
+  <si>
+    <t>-11011000+</t>
+  </si>
+  <si>
+    <t>-+-00101101+</t>
+  </si>
+  <si>
+    <t>-+-00011110+</t>
+  </si>
+  <si>
+    <t>-10110100+</t>
+  </si>
+  <si>
+    <t>-00100111+</t>
+  </si>
+  <si>
+    <t>-00101101+</t>
+  </si>
+  <si>
+    <t>-01111000+</t>
+  </si>
+  <si>
+    <t>-+-11011000+</t>
+  </si>
+  <si>
+    <t>-11100100+</t>
+  </si>
+  <si>
+    <t>-10001101+</t>
+  </si>
+  <si>
+    <t>-+-11010010+</t>
+  </si>
+  <si>
+    <t>-+-00011011+</t>
+  </si>
+  <si>
     <t>-10000111+</t>
+  </si>
+  <si>
+    <t>-+-01001110+</t>
+  </si>
+  <si>
+    <t>-+-01001011+</t>
+  </si>
+  <si>
+    <t>-01001110+</t>
+  </si>
+  <si>
+    <t>-01001011+</t>
+  </si>
+  <si>
+    <t>-01110010+</t>
+  </si>
+  <si>
+    <t>-+-00100111+</t>
+  </si>
+  <si>
+    <t>-+-10001101+</t>
+  </si>
+  <si>
+    <t>-+-11100001+</t>
   </si>
   <si>
     <t>-10110001+</t>
   </si>
   <si>
-    <t>-00100111+</t>
-  </si>
-  <si>
-    <t>-01110010+</t>
-  </si>
-  <si>
-    <t>-+-11010010+</t>
-  </si>
-  <si>
-    <t>-+-11100100+</t>
-  </si>
-  <si>
-    <t>-+-11100001+</t>
-  </si>
-  <si>
-    <t>-10110100+</t>
-  </si>
-  <si>
-    <t>-+-01001110+</t>
-  </si>
-  <si>
-    <t>-00101101+</t>
-  </si>
-  <si>
-    <t>-+-01110010+</t>
-  </si>
-  <si>
-    <t>-11100001+</t>
-  </si>
-  <si>
-    <t>-11010010+</t>
-  </si>
-  <si>
-    <t>-01111000+</t>
-  </si>
-  <si>
-    <t>-10001101+</t>
-  </si>
-  <si>
-    <t>-+-00011011+</t>
-  </si>
-  <si>
-    <t>-+-10001101+</t>
-  </si>
-  <si>
-    <t>-11100100+</t>
-  </si>
-  <si>
-    <t>-11011000+</t>
-  </si>
-  <si>
-    <t>-01001011+</t>
-  </si>
-  <si>
-    <t>-01001110+</t>
+    <t>-10010011+-+</t>
   </si>
   <si>
     <t>-10011100+-+</t>
   </si>
   <si>
+    <t>-01100011+-+</t>
+  </si>
+  <si>
     <t>-01101100+-+</t>
   </si>
   <si>
-    <t>-01100011+-+</t>
+    <t>-11001001+-+</t>
   </si>
   <si>
-    <t>-11100100+-+</t>
+    <t>-00110110+-+</t>
   </si>
   <si>
-    <t>-00101101+-+</t>
+    <t>-11011000+-+</t>
+  </si>
+  <si>
+    <t>-00100111+-+</t>
+  </si>
+  <si>
+    <t>-00011011+-+</t>
+  </si>
+  <si>
+    <t>-00011110+-+</t>
+  </si>
+  <si>
+    <t>-10000111+-+</t>
+  </si>
+  <si>
+    <t>-01110010+-+</t>
+  </si>
+  <si>
+    <t>-01001110+-+</t>
+  </si>
+  <si>
+    <t>-11100001+-+</t>
+  </si>
+  <si>
+    <t>-10110100+-+</t>
+  </si>
+  <si>
+    <t>-10110001+-+</t>
+  </si>
+  <si>
+    <t>-01111000+-+</t>
   </si>
   <si>
     <t>-11010010+-+</t>
   </si>
   <si>
-    <t>-11100001+-+</t>
+    <t>-1011+-0100+</t>
   </si>
   <si>
-    <t>-0111+-0010+</t>
+    <t>-1000+-0111+</t>
   </si>
   <si>
-    <t>-0100+-1110+</t>
+    <t>-1000+-1101+</t>
   </si>
   <si>
-    <t>-1110+-0100+</t>
+    <t>-0111+-1000+</t>
+  </si>
+  <si>
+    <t>-0010+-0111+</t>
+  </si>
+  <si>
+    <t>-1101+-0010+</t>
   </si>
   <si>
     <t>-0010+-1101+</t>
   </si>
   <si>
-    <t>-1101+-0010+</t>
+    <t>-1101+-1000+</t>
   </si>
   <si>
-    <t>-00(1101)+-10+</t>
+    <t>-1110+-0001+</t>
   </si>
   <si>
-    <t>-11(0001)+-10+</t>
+    <t>-11(0010)+-01+</t>
+  </si>
+  <si>
+    <t>-11(0100)+-10+</t>
+  </si>
+  <si>
+    <t>-11(1000)+-01+</t>
   </si>
   <si>
     <t>-00(1011)+-01+</t>
   </si>
   <si>
-    <t>-10(1101)+-00+</t>
+    <t>-01+-(0010)11+</t>
   </si>
   <si>
-    <t>-10(0001)+-11+</t>
+    <t>-10+-(0111)00+</t>
+  </si>
+  <si>
+    <t>-01+-(1110)00+</t>
+  </si>
+  <si>
+    <t>-10+-(0100)11+</t>
   </si>
   <si>
     <t>-01(0010)+-11+</t>
   </si>
   <si>
+    <t>-01(1110)+-00+</t>
+  </si>
+  <si>
+    <t>-10(1101)+-00+</t>
+  </si>
+  <si>
+    <t>-10(0111)+-00+</t>
+  </si>
+  <si>
     <t>-01(1011)+-00+</t>
+  </si>
+  <si>
+    <t>-110110+-00+</t>
+  </si>
+  <si>
+    <t>-011011+-00+</t>
+  </si>
+  <si>
+    <t>-011000+-11+</t>
   </si>
   <si>
     <t>-100100+-11+</t>
   </si>
   <si>
-    <t>-011000+-11+</t>
+    <t>-010010+-11+</t>
   </si>
   <si>
-    <t>-11+-(0100)10+</t>
+    <t>-100111+-00+</t>
+  </si>
+  <si>
+    <t>-001001+-11+</t>
+  </si>
+  <si>
+    <t>-011110+-00+</t>
+  </si>
+  <si>
+    <t>-111001+-00+</t>
+  </si>
+  <si>
+    <t>-000110+-11+</t>
+  </si>
+  <si>
+    <t>-11+-(0001)10+</t>
   </si>
   <si>
     <t>-00+-(1110)01+</t>
   </si>
   <si>
+    <t>-00+-(1101)10+</t>
+  </si>
+  <si>
     <t>-11+-(1000)01+</t>
+  </si>
+  <si>
+    <t>-00+-(1011)01+</t>
+  </si>
+  <si>
+    <t>-00+-111001+</t>
+  </si>
+  <si>
+    <t>-00+-011011+</t>
   </si>
   <si>
     <t>-11+-011000+</t>
   </si>
   <si>
-    <t>-11+-000110+</t>
+    <t>-11+-100100+</t>
   </si>
   <si>
-    <t>-00+-111001+</t>
-  </si>
-  <si>
-    <t>-11+-100100+</t>
+    <t>-11+-001001+</t>
   </si>
   <si>
     <t>-00+-100111+</t>
   </si>
   <si>
-    <t>-00+-110110+</t>
-  </si>
-  <si>
     <t>-00+-011110+</t>
   </si>
   <si>
-    <t>-11+-100001+</t>
+    <t>-00+-101101+</t>
   </si>
   <si>
     <t>-11+-010010+</t>
   </si>
   <si>
-    <t>-10(1101)00+</t>
-  </si>
-  <si>
-    <t>-01(0010)11+</t>
+    <t>-01(1011)00+</t>
   </si>
   <si>
     <t>-10(0100)11+</t>
   </si>
   <si>
-    <t>-10(0001)11+</t>
+    <t>-01(1110)00+</t>
   </si>
   <si>
-    <t>-01(1011)00+</t>
+    <t>-10(1101)00+</t>
+  </si>
+  <si>
+    <t>-10(0111)00+</t>
   </si>
   <si>
     <t>-01(1000)11+</t>
   </si>
   <si>
-    <t>-01(1110)00+</t>
+    <t>-10(0001)11+</t>
   </si>
   <si>
-    <t>-10(0111)00+</t>
-  </si>
-  <si>
-    <t>-00(1110)01+</t>
-  </si>
-  <si>
-    <t>-+-(1110)0001+</t>
-  </si>
-  <si>
-    <t>-+-01(1110)00+</t>
-  </si>
-  <si>
-    <t>-11(0001)10+</t>
-  </si>
-  <si>
-    <t>-+-01(1011)00+</t>
-  </si>
-  <si>
-    <t>-+-(0100)1011+</t>
-  </si>
-  <si>
-    <t>-11(0010)01+</t>
-  </si>
-  <si>
-    <t>-+-11(0001)10+</t>
-  </si>
-  <si>
-    <t>-+-(0010)0111+</t>
+    <t>-01(0010)11+</t>
   </si>
   <si>
     <t>-+-(0111)1000+</t>
@@ -352,127 +463,229 @@
     <t>-+-(1011)0001+</t>
   </si>
   <si>
+    <t>-+-01(1011)00+</t>
+  </si>
+  <si>
+    <t>-00(1110)01+</t>
+  </si>
+  <si>
+    <t>-+-(1110)0100+</t>
+  </si>
+  <si>
+    <t>-+-(1000)1101+</t>
+  </si>
+  <si>
+    <t>-+-(0010)1101+</t>
+  </si>
+  <si>
+    <t>-+-11(0100)10+</t>
+  </si>
+  <si>
+    <t>-+-(0001)1110+</t>
+  </si>
+  <si>
+    <t>-11(0010)01+</t>
+  </si>
+  <si>
+    <t>-+-(0010)0111+</t>
+  </si>
+  <si>
     <t>-+-10(0001)11+</t>
+  </si>
+  <si>
+    <t>-+-00(1110)01+</t>
+  </si>
+  <si>
+    <t>-11(0001)10+</t>
+  </si>
+  <si>
+    <t>-+-00(1011)01+</t>
+  </si>
+  <si>
+    <t>-+-(0001)1011+</t>
+  </si>
+  <si>
+    <t>-+-(0100)1011+</t>
+  </si>
+  <si>
+    <t>-+-01(0010)11+</t>
+  </si>
+  <si>
+    <t>-+-(0111)0010+</t>
   </si>
   <si>
     <t>-00(1101)10+</t>
   </si>
   <si>
-    <t>-+-(1101)1000+</t>
+    <t>-+-11(0001)10+</t>
   </si>
   <si>
-    <t>-+-(0001)1110+</t>
+    <t>-+-(1110)0001+</t>
+  </si>
+  <si>
+    <t>-+-00(1101)10+</t>
+  </si>
+  <si>
+    <t>-11(1000)01+</t>
+  </si>
+  <si>
+    <t>-00(1011)01+</t>
   </si>
   <si>
     <t>-11(0100)10+</t>
   </si>
   <si>
-    <t>-00(1011)01+</t>
+    <t>-0010(1101)+-+</t>
   </si>
   <si>
-    <t>-11(1000)01+</t>
+    <t>-11(1000)01+-+</t>
   </si>
   <si>
-    <t>-0100(1011)+-+</t>
+    <t>-1101(0010)+-+</t>
+  </si>
+  <si>
+    <t>-11(0100)10+-+</t>
+  </si>
+  <si>
+    <t>-00(1110)01+-+</t>
+  </si>
+  <si>
+    <t>-00(0111)10+-+</t>
+  </si>
+  <si>
+    <t>-10(0111)00+-+</t>
+  </si>
+  <si>
+    <t>-11(0010)01+-+</t>
   </si>
   <si>
     <t>-01(1011)00+-+</t>
   </si>
   <si>
-    <t>-10(0100)11+-+</t>
+    <t>-0111(1000)+-+</t>
   </si>
   <si>
     <t>-11(0001)10+-+</t>
   </si>
   <si>
-    <t>-1011(0001)+-+</t>
+    <t>-00(1101)10+-+</t>
   </si>
   <si>
-    <t>-11(0100)10+-+</t>
+    <t>-00(1011)01+-+</t>
   </si>
   <si>
-    <t>-1000(1101)+-+</t>
+    <t>-0111(0010)+-+</t>
   </si>
   <si>
-    <t>-1000(0111)+-+</t>
+    <t>-10(0001)11+-+</t>
   </si>
   <si>
-    <t>-00(1110)01+-+</t>
+    <t>-1101(1000)+-+</t>
   </si>
   <si>
-    <t>-10(1101)00+-+</t>
-  </si>
-  <si>
-    <t>-01(1110)00+-+</t>
+    <t>-1110(0100)+-+</t>
   </si>
   <si>
     <t>-0010(0111)+-+</t>
   </si>
   <si>
+    <t>-10(1100)01+</t>
+  </si>
+  <si>
     <t>-10(0011)01+</t>
   </si>
   <si>
-    <t>-10(1100)01+</t>
+    <t>-01(0011)10+</t>
   </si>
   <si>
     <t>-01(1100)10+</t>
   </si>
   <si>
-    <t>-01(0011)10+</t>
+    <t>-+-10(0011)01+</t>
+  </si>
+  <si>
+    <t>-+-(0011)1001+</t>
+  </si>
+  <si>
+    <t>-+-(1100)0110+</t>
   </si>
   <si>
     <t>-+-01(1100)10+</t>
   </si>
   <si>
-    <t>-1001(0011)+-+</t>
-  </si>
-  <si>
-    <t>-1001(1100)+-+</t>
-  </si>
-  <si>
-    <t>-10(0011)01+-+</t>
+    <t>-0110(1100)+-+</t>
   </si>
   <si>
     <t>-01(0011)10+-+</t>
   </si>
   <si>
+    <t>-011100+-10+</t>
+  </si>
+  <si>
     <t>-010011+-10+</t>
+  </si>
+  <si>
+    <t>-000111+-10+</t>
+  </si>
+  <si>
+    <t>-001011+-01+</t>
+  </si>
+  <si>
+    <t>-001110+-01+</t>
   </si>
   <si>
     <t>-001101+-10+</t>
   </si>
   <si>
-    <t>-001011+-01+</t>
+    <t>-110010+-01+</t>
   </si>
   <si>
-    <t>-000111+-10+</t>
+    <t>-101100+-01+</t>
   </si>
   <si>
-    <t>-110001+-10+</t>
+    <t>-110100+-10+</t>
   </si>
   <si>
     <t>-111000+-01+</t>
   </si>
   <si>
-    <t>-110010+-01+</t>
+    <t>-01(1100)+-10+</t>
   </si>
   <si>
-    <t>-01(0011)+-10+</t>
+    <t>-10(0011)+-01+</t>
+  </si>
+  <si>
+    <t>-10(1100)+-01+</t>
+  </si>
+  <si>
+    <t>-01+-001110+</t>
+  </si>
+  <si>
+    <t>-01+-110010+</t>
   </si>
   <si>
     <t>-01+-001011+</t>
   </si>
   <si>
-    <t>-01+-110010+</t>
+    <t>-10+-000111+</t>
+  </si>
+  <si>
+    <t>-10+-110100+</t>
   </si>
   <si>
     <t>-10+-110001+</t>
   </si>
   <si>
-    <t>-10+-000111+</t>
+    <t>-10+-010011+</t>
   </si>
   <si>
-    <t>-01+-(0011)10+</t>
+    <t>-10+-001101+</t>
+  </si>
+  <si>
+    <t>-01+-(1100)10+</t>
+  </si>
+  <si>
+    <t>-10+-(0011)01+</t>
   </si>
 </sst>
 </file>
@@ -36055,13 +36268,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EO4"/>
+  <dimension ref="A1:HI4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:145">
+    <row r="1" spans="1:217">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -36177,34 +36390,34 @@
         <v>47</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>57</v>
@@ -36336,61 +36549,61 @@
         <v>99</v>
       </c>
       <c r="CO1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="DH1" s="1" t="s">
         <v>118</v>
@@ -36494,8 +36707,224 @@
       <c r="EO1" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:145">
+      <c r="EP1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:217">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -36506,112 +36935,112 @@
         <v>8.801120388643609</v>
       </c>
       <c r="D2">
+        <v>8.801120388643609</v>
+      </c>
+      <c r="E2">
+        <v>8.801120388643609</v>
+      </c>
+      <c r="F2">
         <v>8.788755512621808</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <v>8.788755512621808</v>
+      </c>
+      <c r="H2">
         <v>8.001250091340133</v>
       </c>
-      <c r="F2">
+      <c r="I2">
+        <v>8.001250091340133</v>
+      </c>
+      <c r="J2">
         <v>8.001250091338749</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>8.001250091338749</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>8.001250091338749</v>
       </c>
-      <c r="I2">
+      <c r="M2">
         <v>8.001250091338749</v>
       </c>
-      <c r="J2">
+      <c r="N2">
         <v>8.001250091338287</v>
       </c>
-      <c r="K2">
+      <c r="O2">
+        <v>8.001250091338287</v>
+      </c>
+      <c r="P2">
+        <v>8.001250091338287</v>
+      </c>
+      <c r="Q2">
+        <v>8.001250091338287</v>
+      </c>
+      <c r="R2">
         <v>7.984416186743372</v>
       </c>
-      <c r="L2">
+      <c r="S2">
         <v>7.98441618674291</v>
       </c>
-      <c r="M2">
+      <c r="T2">
+        <v>7.98441618674291</v>
+      </c>
+      <c r="U2">
         <v>5.861708947088221</v>
       </c>
-      <c r="N2">
+      <c r="V2">
         <v>5.861708947088221</v>
       </c>
-      <c r="O2">
+      <c r="W2">
         <v>5.861708947088221</v>
       </c>
-      <c r="P2">
+      <c r="X2">
         <v>5.861708947088221</v>
       </c>
-      <c r="Q2">
+      <c r="Y2">
         <v>5.822102573298681</v>
       </c>
-      <c r="R2">
+      <c r="Z2">
         <v>5.332393298878278</v>
       </c>
-      <c r="S2">
+      <c r="AA2">
         <v>5.332393298878278</v>
       </c>
-      <c r="T2">
+      <c r="AB2">
         <v>5.332393298878278</v>
       </c>
-      <c r="U2">
+      <c r="AC2">
         <v>5.332393298878278</v>
       </c>
-      <c r="V2">
+      <c r="AD2">
         <v>5.332393298878278</v>
       </c>
-      <c r="W2">
+      <c r="AE2">
         <v>5.332393298878278</v>
       </c>
-      <c r="X2">
+      <c r="AF2">
         <v>5.332393298878278</v>
       </c>
-      <c r="Y2">
+      <c r="AG2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="AH2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="AI2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="AJ2">
         <v>5.332393298877041</v>
       </c>
-      <c r="Z2">
+      <c r="AK2">
         <v>5.332393298877041</v>
       </c>
-      <c r="AA2">
+      <c r="AL2">
         <v>5.332393298877041</v>
       </c>
-      <c r="AB2">
+      <c r="AM2">
         <v>5.332393298877041</v>
-      </c>
-      <c r="AC2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AD2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AE2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AF2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AG2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AH2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AI2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AJ2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AK2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AL2">
-        <v>5.332393298875804</v>
-      </c>
-      <c r="AM2">
-        <v>5.332393298875804</v>
       </c>
       <c r="AN2">
         <v>5.332393298875804</v>
@@ -36650,289 +37079,505 @@
         <v>5.332393298875804</v>
       </c>
       <c r="AZ2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BA2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BB2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BC2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BD2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BE2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BF2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BG2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BH2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BI2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BJ2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BK2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BL2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BM2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BN2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="BO2">
         <v>5.328386870950171</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>5.328386870950171</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>5.328386870950171</v>
       </c>
-      <c r="BC2">
+      <c r="BR2">
+        <v>5.328386870950171</v>
+      </c>
+      <c r="BS2">
         <v>5.328386870948934</v>
       </c>
-      <c r="BD2">
+      <c r="BT2">
+        <v>5.328386870948934</v>
+      </c>
+      <c r="BU2">
+        <v>5.328386870948934</v>
+      </c>
+      <c r="BV2">
+        <v>5.328386870948934</v>
+      </c>
+      <c r="BW2">
+        <v>5.328386870948934</v>
+      </c>
+      <c r="BX2">
         <v>5.328386870947697</v>
       </c>
-      <c r="BE2">
+      <c r="BY2">
         <v>5.328386870947697</v>
       </c>
-      <c r="BF2">
+      <c r="BZ2">
         <v>5.328386870947697</v>
       </c>
-      <c r="BG2">
+      <c r="CA2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="CB2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="CC2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="CD2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="CE2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="CF2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="CG2">
         <v>5.328316008944133</v>
       </c>
-      <c r="BH2">
+      <c r="CH2">
         <v>5.328316008944133</v>
       </c>
-      <c r="BI2">
+      <c r="CI2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="CJ2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="CK2">
         <v>5.328316008943515</v>
       </c>
-      <c r="BJ2">
+      <c r="CL2">
         <v>5.328316008943515</v>
       </c>
-      <c r="BK2">
+      <c r="CM2">
         <v>5.328316008943515</v>
       </c>
-      <c r="BL2">
+      <c r="CN2">
+        <v>5.328316008943515</v>
+      </c>
+      <c r="CO2">
+        <v>5.328316008943515</v>
+      </c>
+      <c r="CP2">
+        <v>5.328316008943515</v>
+      </c>
+      <c r="CQ2">
         <v>4.534951375588803</v>
       </c>
-      <c r="BM2">
+      <c r="CR2">
         <v>4.534951375588803</v>
       </c>
-      <c r="BN2">
+      <c r="CS2">
         <v>4.534951375588803</v>
       </c>
-      <c r="BO2">
+      <c r="CT2">
+        <v>4.534951375588803</v>
+      </c>
+      <c r="CU2">
+        <v>4.524226195118227</v>
+      </c>
+      <c r="CV2">
+        <v>4.524226195118227</v>
+      </c>
+      <c r="CW2">
+        <v>4.524226195118227</v>
+      </c>
+      <c r="CX2">
+        <v>4.524226195118227</v>
+      </c>
+      <c r="CY2">
         <v>4.516146415032845</v>
       </c>
-      <c r="BP2">
+      <c r="CZ2">
         <v>4.516146415032845</v>
       </c>
-      <c r="BQ2">
+      <c r="DA2">
         <v>4.516146415032845</v>
       </c>
-      <c r="BR2">
+      <c r="DB2">
         <v>4.51614641503254</v>
       </c>
-      <c r="BS2">
+      <c r="DC2">
+        <v>4.51614641503254</v>
+      </c>
+      <c r="DD2">
         <v>4.516144520055231</v>
       </c>
-      <c r="BT2">
+      <c r="DE2">
         <v>4.516144520055231</v>
       </c>
-      <c r="BU2">
+      <c r="DF2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DG2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DH2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DI2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DJ2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DK2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DL2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DM2">
+        <v>4.516144520055231</v>
+      </c>
+      <c r="DN2">
         <v>4.482102099013621</v>
       </c>
-      <c r="BV2">
+      <c r="DO2">
         <v>4.482102099013621</v>
       </c>
-      <c r="BW2">
+      <c r="DP2">
         <v>4.482102099013621</v>
       </c>
-      <c r="BX2">
+      <c r="DQ2">
+        <v>4.482102099013621</v>
+      </c>
+      <c r="DR2">
+        <v>4.482102099013621</v>
+      </c>
+      <c r="DS2">
         <v>4.482100137025595</v>
       </c>
-      <c r="BY2">
+      <c r="DT2">
         <v>4.482100137025595</v>
       </c>
-      <c r="BZ2">
+      <c r="DU2">
         <v>4.482100137025595</v>
       </c>
-      <c r="CA2">
+      <c r="DV2">
         <v>4.482100137025595</v>
       </c>
-      <c r="CB2">
+      <c r="DW2">
         <v>4.482100137025595</v>
       </c>
-      <c r="CC2">
+      <c r="DX2">
         <v>4.482100137025595</v>
       </c>
-      <c r="CD2">
+      <c r="DY2">
         <v>4.482100137025443</v>
       </c>
-      <c r="CE2">
+      <c r="DZ2">
         <v>4.482100137025443</v>
       </c>
-      <c r="CF2">
+      <c r="EA2">
         <v>4.482100137025443</v>
       </c>
-      <c r="CG2">
+      <c r="EB2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CH2">
+      <c r="EC2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CI2">
+      <c r="ED2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CJ2">
+      <c r="EE2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CK2">
+      <c r="EF2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CL2">
+      <c r="EG2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CM2">
+      <c r="EH2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CN2">
+      <c r="EI2">
         <v>4.10818043817293</v>
       </c>
-      <c r="CO2">
+      <c r="EJ2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CP2">
+      <c r="EK2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CQ2">
+      <c r="EL2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CR2">
+      <c r="EM2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CS2">
+      <c r="EN2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CT2">
+      <c r="EO2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CU2">
+      <c r="EP2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CV2">
+      <c r="EQ2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CW2">
+      <c r="ER2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CX2">
+      <c r="ES2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CY2">
+      <c r="ET2">
         <v>4.108180438171984</v>
       </c>
-      <c r="CZ2">
+      <c r="EU2">
         <v>4.108180438171984</v>
       </c>
-      <c r="DA2">
+      <c r="EV2">
         <v>4.108180438171984</v>
       </c>
-      <c r="DB2">
+      <c r="EW2">
         <v>4.108180438171984</v>
       </c>
-      <c r="DC2">
+      <c r="EX2">
         <v>4.108180438171984</v>
       </c>
-      <c r="DD2">
+      <c r="EY2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="EZ2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FA2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FB2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FC2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FD2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FE2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FF2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="FG2">
         <v>4.108180438171038</v>
       </c>
-      <c r="DE2">
+      <c r="FH2">
         <v>4.108180438171038</v>
       </c>
-      <c r="DF2">
+      <c r="FI2">
         <v>4.108180438171038</v>
       </c>
-      <c r="DG2">
+      <c r="FJ2">
         <v>4.108180438171038</v>
       </c>
-      <c r="DH2">
+      <c r="FK2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DI2">
+      <c r="FL2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DJ2">
+      <c r="FM2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DK2">
+      <c r="FN2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DL2">
+      <c r="FO2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DM2">
+      <c r="FP2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DN2">
+      <c r="FQ2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DO2">
+      <c r="FR2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DP2">
+      <c r="FS2">
         <v>4.104247074435842</v>
       </c>
-      <c r="DQ2">
+      <c r="FT2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="FU2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="FV2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="FW2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="FX2">
+        <v>4.104247074435842</v>
+      </c>
+      <c r="FY2">
         <v>4.104247074434896</v>
       </c>
-      <c r="DR2">
-        <v>4.104247074434896</v>
-      </c>
-      <c r="DS2">
+      <c r="FZ2">
         <v>4.104247074433951</v>
       </c>
-      <c r="DT2">
+      <c r="GA2">
+        <v>4.104247074433951</v>
+      </c>
+      <c r="GB2">
+        <v>4.104247074433951</v>
+      </c>
+      <c r="GC2">
         <v>3.907866429488499</v>
       </c>
-      <c r="DU2">
+      <c r="GD2">
         <v>3.907866429488499</v>
       </c>
-      <c r="DV2">
+      <c r="GE2">
         <v>3.907866429488499</v>
       </c>
-      <c r="DW2">
+      <c r="GF2">
         <v>3.907866429488499</v>
       </c>
-      <c r="DX2">
+      <c r="GG2">
         <v>3.907866429487128</v>
       </c>
-      <c r="DY2">
+      <c r="GH2">
+        <v>3.907866429487128</v>
+      </c>
+      <c r="GI2">
+        <v>3.907866429487128</v>
+      </c>
+      <c r="GJ2">
+        <v>3.907866429487128</v>
+      </c>
+      <c r="GK2">
         <v>3.904178273638084</v>
       </c>
-      <c r="DZ2">
-        <v>3.904178273638084</v>
-      </c>
-      <c r="EA2">
+      <c r="GL2">
         <v>3.904178273637174</v>
       </c>
-      <c r="EB2">
-        <v>3.904178273637174</v>
-      </c>
-      <c r="EC2">
+      <c r="GM2">
         <v>2.535796439376919</v>
       </c>
-      <c r="ED2">
+      <c r="GN2">
         <v>2.535796439376919</v>
       </c>
-      <c r="EE2">
+      <c r="GO2">
         <v>2.535796439376919</v>
       </c>
-      <c r="EF2">
+      <c r="GP2">
         <v>2.535796439376919</v>
       </c>
-      <c r="EG2">
+      <c r="GQ2">
         <v>2.535796439376919</v>
       </c>
-      <c r="EH2">
+      <c r="GR2">
         <v>2.535796439376919</v>
       </c>
-      <c r="EI2">
+      <c r="GS2">
         <v>2.535796439376919</v>
       </c>
-      <c r="EJ2">
+      <c r="GT2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="GU2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="GV2">
+        <v>2.535796439376919</v>
+      </c>
+      <c r="GW2">
         <v>2.535748417970078</v>
       </c>
-      <c r="EK2">
+      <c r="GX2">
+        <v>2.535748417970078</v>
+      </c>
+      <c r="GY2">
+        <v>2.535748417970078</v>
+      </c>
+      <c r="GZ2">
         <v>2.5282469173021</v>
       </c>
-      <c r="EL2">
+      <c r="HA2">
         <v>2.5282469173021</v>
       </c>
-      <c r="EM2">
+      <c r="HB2">
         <v>2.5282469173021</v>
       </c>
-      <c r="EN2">
+      <c r="HC2">
         <v>2.5282469173021</v>
       </c>
-      <c r="EO2">
+      <c r="HD2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="HE2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="HF2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="HG2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="HH2">
         <v>2.52819889594343</v>
       </c>
-    </row>
-    <row r="3" spans="1:145">
+      <c r="HI2">
+        <v>2.52819889594343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:217">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -36946,13 +37591,13 @@
         <v>1.310000000000001</v>
       </c>
       <c r="E3">
-        <v>2.030000000000001</v>
+        <v>1.310000000000001</v>
       </c>
       <c r="F3">
-        <v>2.030000000000001</v>
+        <v>1.310000000000001</v>
       </c>
       <c r="G3">
-        <v>2.030000000000001</v>
+        <v>1.310000000000001</v>
       </c>
       <c r="H3">
         <v>2.030000000000001</v>
@@ -36970,43 +37615,43 @@
         <v>2.030000000000001</v>
       </c>
       <c r="M3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="N3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="O3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="P3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="R3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="S3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="T3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="U3">
         <v>0.6800000000000004</v>
       </c>
-      <c r="N3">
+      <c r="V3">
         <v>0.6800000000000004</v>
       </c>
-      <c r="O3">
+      <c r="W3">
         <v>0.6800000000000004</v>
       </c>
-      <c r="P3">
+      <c r="X3">
         <v>0.6800000000000004</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>0.6700000000000004</v>
-      </c>
-      <c r="R3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="S3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="T3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="U3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="V3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="W3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="X3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="Y3">
-        <v>2.719999999999986</v>
       </c>
       <c r="Z3">
         <v>2.719999999999986</v>
@@ -37108,268 +37753,484 @@
         <v>2.719999999999986</v>
       </c>
       <c r="BG3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BH3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BI3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BJ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BK3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BL3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BM3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BN3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BO3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BP3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BQ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BR3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BS3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BT3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BU3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BV3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BW3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BX3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BY3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="BZ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CA3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CB3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CC3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CD3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CE3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CF3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CG3">
         <v>1.360000000000001</v>
       </c>
-      <c r="BH3">
+      <c r="CH3">
         <v>1.360000000000001</v>
       </c>
-      <c r="BI3">
+      <c r="CI3">
         <v>1.360000000000001</v>
       </c>
-      <c r="BJ3">
+      <c r="CJ3">
         <v>1.360000000000001</v>
       </c>
-      <c r="BK3">
+      <c r="CK3">
         <v>1.360000000000001</v>
       </c>
-      <c r="BL3">
+      <c r="CL3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="CM3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="CN3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="CO3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="CP3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="CQ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BM3">
+      <c r="CR3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BN3">
+      <c r="CS3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BO3">
+      <c r="CT3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BP3">
+      <c r="CU3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BQ3">
+      <c r="CV3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BR3">
+      <c r="CW3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BS3">
+      <c r="CX3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BT3">
+      <c r="CY3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BU3">
+      <c r="CZ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BV3">
+      <c r="DA3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BW3">
+      <c r="DB3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BX3">
+      <c r="DC3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BY3">
+      <c r="DD3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="BZ3">
+      <c r="DE3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CA3">
+      <c r="DF3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CB3">
+      <c r="DG3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CC3">
+      <c r="DH3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CD3">
+      <c r="DI3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CE3">
+      <c r="DJ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CF3">
+      <c r="DK3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CG3">
+      <c r="DL3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DM3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DN3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DO3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DP3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DQ3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DR3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DS3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DT3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DU3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DV3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DW3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DX3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DY3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="DZ3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="EA3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="EB3">
         <v>2.08</v>
       </c>
-      <c r="CH3">
+      <c r="EC3">
         <v>2.08</v>
       </c>
-      <c r="CI3">
+      <c r="ED3">
         <v>2.08</v>
       </c>
-      <c r="CJ3">
+      <c r="EE3">
         <v>2.08</v>
       </c>
-      <c r="CK3">
+      <c r="EF3">
         <v>2.08</v>
       </c>
-      <c r="CL3">
+      <c r="EG3">
         <v>2.08</v>
       </c>
-      <c r="CM3">
+      <c r="EH3">
         <v>2.08</v>
       </c>
-      <c r="CN3">
+      <c r="EI3">
         <v>2.08</v>
       </c>
-      <c r="CO3">
+      <c r="EJ3">
         <v>2.08</v>
       </c>
-      <c r="CP3">
+      <c r="EK3">
         <v>2.08</v>
       </c>
-      <c r="CQ3">
+      <c r="EL3">
         <v>2.08</v>
       </c>
-      <c r="CR3">
+      <c r="EM3">
         <v>2.08</v>
       </c>
-      <c r="CS3">
+      <c r="EN3">
         <v>2.08</v>
       </c>
-      <c r="CT3">
+      <c r="EO3">
         <v>2.08</v>
       </c>
-      <c r="CU3">
+      <c r="EP3">
         <v>2.08</v>
       </c>
-      <c r="CV3">
+      <c r="EQ3">
         <v>2.08</v>
       </c>
-      <c r="CW3">
+      <c r="ER3">
         <v>2.08</v>
       </c>
-      <c r="CX3">
+      <c r="ES3">
         <v>2.08</v>
       </c>
-      <c r="CY3">
+      <c r="ET3">
         <v>2.08</v>
       </c>
-      <c r="CZ3">
+      <c r="EU3">
         <v>2.08</v>
       </c>
-      <c r="DA3">
+      <c r="EV3">
         <v>2.08</v>
       </c>
-      <c r="DB3">
+      <c r="EW3">
         <v>2.08</v>
       </c>
-      <c r="DC3">
+      <c r="EX3">
         <v>2.08</v>
       </c>
-      <c r="DD3">
+      <c r="EY3">
         <v>2.08</v>
       </c>
-      <c r="DE3">
+      <c r="EZ3">
         <v>2.08</v>
       </c>
-      <c r="DF3">
+      <c r="FA3">
         <v>2.08</v>
       </c>
-      <c r="DG3">
+      <c r="FB3">
         <v>2.08</v>
       </c>
-      <c r="DH3">
+      <c r="FC3">
         <v>2.08</v>
       </c>
-      <c r="DI3">
+      <c r="FD3">
         <v>2.08</v>
       </c>
-      <c r="DJ3">
+      <c r="FE3">
         <v>2.08</v>
       </c>
-      <c r="DK3">
+      <c r="FF3">
         <v>2.08</v>
       </c>
-      <c r="DL3">
+      <c r="FG3">
         <v>2.08</v>
       </c>
-      <c r="DM3">
+      <c r="FH3">
         <v>2.08</v>
       </c>
-      <c r="DN3">
+      <c r="FI3">
         <v>2.08</v>
       </c>
-      <c r="DO3">
+      <c r="FJ3">
         <v>2.08</v>
       </c>
-      <c r="DP3">
+      <c r="FK3">
         <v>2.08</v>
       </c>
-      <c r="DQ3">
+      <c r="FL3">
         <v>2.08</v>
       </c>
-      <c r="DR3">
+      <c r="FM3">
         <v>2.08</v>
       </c>
-      <c r="DS3">
+      <c r="FN3">
         <v>2.08</v>
       </c>
-      <c r="DT3">
+      <c r="FO3">
+        <v>2.08</v>
+      </c>
+      <c r="FP3">
+        <v>2.08</v>
+      </c>
+      <c r="FQ3">
+        <v>2.08</v>
+      </c>
+      <c r="FR3">
+        <v>2.08</v>
+      </c>
+      <c r="FS3">
+        <v>2.08</v>
+      </c>
+      <c r="FT3">
+        <v>2.08</v>
+      </c>
+      <c r="FU3">
+        <v>2.08</v>
+      </c>
+      <c r="FV3">
+        <v>2.08</v>
+      </c>
+      <c r="FW3">
+        <v>2.08</v>
+      </c>
+      <c r="FX3">
+        <v>2.08</v>
+      </c>
+      <c r="FY3">
+        <v>2.08</v>
+      </c>
+      <c r="FZ3">
+        <v>2.08</v>
+      </c>
+      <c r="GA3">
+        <v>2.08</v>
+      </c>
+      <c r="GB3">
+        <v>2.08</v>
+      </c>
+      <c r="GC3">
         <v>2.010000000000001</v>
       </c>
-      <c r="DU3">
+      <c r="GD3">
         <v>2.010000000000001</v>
       </c>
-      <c r="DV3">
+      <c r="GE3">
         <v>2.010000000000001</v>
       </c>
-      <c r="DW3">
+      <c r="GF3">
         <v>2.010000000000001</v>
       </c>
-      <c r="DX3">
+      <c r="GG3">
         <v>2.010000000000001</v>
       </c>
-      <c r="DY3">
+      <c r="GH3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="GI3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="GJ3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="GK3">
         <v>2.000000000000001</v>
       </c>
-      <c r="DZ3">
+      <c r="GL3">
         <v>2.000000000000001</v>
       </c>
-      <c r="EA3">
-        <v>2.000000000000001</v>
-      </c>
-      <c r="EB3">
-        <v>2.000000000000001</v>
-      </c>
-      <c r="EC3">
+      <c r="GM3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="ED3">
+      <c r="GN3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EE3">
+      <c r="GO3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EF3">
+      <c r="GP3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EG3">
+      <c r="GQ3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EH3">
+      <c r="GR3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EI3">
+      <c r="GS3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EJ3">
+      <c r="GT3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EK3">
+      <c r="GU3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EL3">
+      <c r="GV3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EM3">
+      <c r="GW3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EN3">
+      <c r="GX3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="EO3">
+      <c r="GY3">
         <v>0.6600000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:145">
+      <c r="GZ3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HA3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HB3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HC3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HD3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HE3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HF3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HG3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HH3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="HI3">
+        <v>0.6600000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:217">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -37380,112 +38241,112 @@
         <v>6.718412510414964</v>
       </c>
       <c r="D4">
+        <v>6.718412510414964</v>
+      </c>
+      <c r="E4">
+        <v>6.718412510414964</v>
+      </c>
+      <c r="F4">
         <v>6.7089736737571</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>6.7089736737571</v>
+      </c>
+      <c r="H4">
         <v>3.941502508049325</v>
       </c>
-      <c r="F4">
+      <c r="I4">
+        <v>3.941502508049325</v>
+      </c>
+      <c r="J4">
         <v>3.941502508048643</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>3.941502508048643</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>3.941502508048643</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>3.941502508048643</v>
       </c>
-      <c r="J4">
+      <c r="N4">
         <v>3.941502508048416</v>
       </c>
-      <c r="K4">
+      <c r="O4">
+        <v>3.941502508048416</v>
+      </c>
+      <c r="P4">
+        <v>3.941502508048416</v>
+      </c>
+      <c r="Q4">
+        <v>3.941502508048416</v>
+      </c>
+      <c r="R4">
         <v>3.933209944208556</v>
       </c>
-      <c r="L4">
+      <c r="S4">
         <v>3.933209944208329</v>
       </c>
-      <c r="M4">
+      <c r="T4">
+        <v>3.933209944208329</v>
+      </c>
+      <c r="U4">
         <v>8.620160216306203</v>
       </c>
-      <c r="N4">
+      <c r="V4">
         <v>8.620160216306203</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>8.620160216306203</v>
       </c>
-      <c r="P4">
+      <c r="X4">
         <v>8.620160216306203</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>8.689705333281609</v>
       </c>
-      <c r="R4">
+      <c r="Z4">
         <v>1.960438712822906</v>
       </c>
-      <c r="S4">
+      <c r="AA4">
         <v>1.960438712822906</v>
       </c>
-      <c r="T4">
+      <c r="AB4">
         <v>1.960438712822906</v>
       </c>
-      <c r="U4">
+      <c r="AC4">
         <v>1.960438712822906</v>
       </c>
-      <c r="V4">
+      <c r="AD4">
         <v>1.960438712822906</v>
       </c>
-      <c r="W4">
+      <c r="AE4">
         <v>1.960438712822906</v>
       </c>
-      <c r="X4">
+      <c r="AF4">
         <v>1.960438712822906</v>
       </c>
-      <c r="Y4">
+      <c r="AG4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="AH4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="AI4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="AJ4">
         <v>1.960438712822452</v>
       </c>
-      <c r="Z4">
+      <c r="AK4">
         <v>1.960438712822452</v>
       </c>
-      <c r="AA4">
+      <c r="AL4">
         <v>1.960438712822452</v>
       </c>
-      <c r="AB4">
+      <c r="AM4">
         <v>1.960438712822452</v>
-      </c>
-      <c r="AC4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AD4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AE4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AF4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AG4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AH4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AI4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AJ4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AK4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AL4">
-        <v>1.960438712821997</v>
-      </c>
-      <c r="AM4">
-        <v>1.960438712821997</v>
       </c>
       <c r="AN4">
         <v>1.960438712821997</v>
@@ -37524,285 +38385,501 @@
         <v>1.960438712821997</v>
       </c>
       <c r="AZ4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BA4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BB4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BC4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BD4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BE4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BF4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BG4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BH4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BI4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BJ4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BK4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BL4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BM4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BN4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="BO4">
         <v>1.958965761378749</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>1.958965761378749</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>1.958965761378749</v>
       </c>
-      <c r="BC4">
+      <c r="BR4">
+        <v>1.958965761378749</v>
+      </c>
+      <c r="BS4">
         <v>1.958965761378295</v>
       </c>
-      <c r="BD4">
+      <c r="BT4">
+        <v>1.958965761378295</v>
+      </c>
+      <c r="BU4">
+        <v>1.958965761378295</v>
+      </c>
+      <c r="BV4">
+        <v>1.958965761378295</v>
+      </c>
+      <c r="BW4">
+        <v>1.958965761378295</v>
+      </c>
+      <c r="BX4">
         <v>1.95896576137784</v>
       </c>
-      <c r="BE4">
+      <c r="BY4">
         <v>1.95896576137784</v>
       </c>
-      <c r="BF4">
+      <c r="BZ4">
         <v>1.95896576137784</v>
       </c>
-      <c r="BG4">
+      <c r="CA4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="CB4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="CC4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="CD4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="CE4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="CF4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="CG4">
         <v>3.917879418341272</v>
       </c>
-      <c r="BH4">
+      <c r="CH4">
         <v>3.917879418341272</v>
       </c>
-      <c r="BI4">
+      <c r="CI4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="CJ4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="CK4">
         <v>3.917879418340817</v>
       </c>
-      <c r="BJ4">
+      <c r="CL4">
         <v>3.917879418340817</v>
       </c>
-      <c r="BK4">
+      <c r="CM4">
         <v>3.917879418340817</v>
       </c>
-      <c r="BL4">
+      <c r="CN4">
+        <v>3.917879418340817</v>
+      </c>
+      <c r="CO4">
+        <v>3.917879418340817</v>
+      </c>
+      <c r="CP4">
+        <v>3.917879418340817</v>
+      </c>
+      <c r="CQ4">
         <v>6.768584142669852</v>
       </c>
-      <c r="BM4">
+      <c r="CR4">
         <v>6.768584142669852</v>
       </c>
-      <c r="BN4">
+      <c r="CS4">
         <v>6.768584142669852</v>
       </c>
-      <c r="BO4">
+      <c r="CT4">
+        <v>6.768584142669852</v>
+      </c>
+      <c r="CU4">
+        <v>6.752576410624215</v>
+      </c>
+      <c r="CV4">
+        <v>6.752576410624215</v>
+      </c>
+      <c r="CW4">
+        <v>6.752576410624215</v>
+      </c>
+      <c r="CX4">
+        <v>6.752576410624215</v>
+      </c>
+      <c r="CY4">
         <v>6.740517037362451</v>
       </c>
-      <c r="BP4">
+      <c r="CZ4">
         <v>6.740517037362451</v>
       </c>
-      <c r="BQ4">
+      <c r="DA4">
         <v>6.740517037362451</v>
       </c>
-      <c r="BR4">
+      <c r="DB4">
         <v>6.740517037361997</v>
       </c>
-      <c r="BS4">
+      <c r="DC4">
+        <v>6.740517037361997</v>
+      </c>
+      <c r="DD4">
         <v>6.740514209037656</v>
       </c>
-      <c r="BT4">
+      <c r="DE4">
         <v>6.740514209037656</v>
       </c>
-      <c r="BU4">
+      <c r="DF4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DG4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DH4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DI4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DJ4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DK4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DL4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DM4">
+        <v>6.740514209037656</v>
+      </c>
+      <c r="DN4">
         <v>6.68970462539346</v>
       </c>
-      <c r="BV4">
+      <c r="DO4">
         <v>6.68970462539346</v>
       </c>
-      <c r="BW4">
+      <c r="DP4">
         <v>6.68970462539346</v>
       </c>
-      <c r="BX4">
+      <c r="DQ4">
+        <v>6.68970462539346</v>
+      </c>
+      <c r="DR4">
+        <v>6.68970462539346</v>
+      </c>
+      <c r="DS4">
         <v>6.689701697053124</v>
       </c>
-      <c r="BY4">
+      <c r="DT4">
         <v>6.689701697053124</v>
       </c>
-      <c r="BZ4">
+      <c r="DU4">
         <v>6.689701697053124</v>
       </c>
-      <c r="CA4">
+      <c r="DV4">
         <v>6.689701697053124</v>
       </c>
-      <c r="CB4">
+      <c r="DW4">
         <v>6.689701697053124</v>
       </c>
-      <c r="CC4">
+      <c r="DX4">
         <v>6.689701697053124</v>
       </c>
-      <c r="CD4">
+      <c r="DY4">
         <v>6.689701697052897</v>
       </c>
-      <c r="CE4">
+      <c r="DZ4">
         <v>6.689701697052897</v>
       </c>
-      <c r="CF4">
+      <c r="EA4">
         <v>6.689701697052897</v>
       </c>
-      <c r="CG4">
+      <c r="EB4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CH4">
+      <c r="EC4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CI4">
+      <c r="ED4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CJ4">
+      <c r="EE4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CK4">
+      <c r="EF4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CL4">
+      <c r="EG4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CM4">
+      <c r="EH4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CN4">
+      <c r="EI4">
         <v>1.975086749121601</v>
       </c>
-      <c r="CO4">
+      <c r="EJ4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CP4">
+      <c r="EK4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CQ4">
+      <c r="EL4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CR4">
+      <c r="EM4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CS4">
+      <c r="EN4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CT4">
+      <c r="EO4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CU4">
+      <c r="EP4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CV4">
+      <c r="EQ4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CW4">
+      <c r="ER4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CX4">
+      <c r="ES4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CY4">
+      <c r="ET4">
         <v>1.975086749121147</v>
       </c>
-      <c r="CZ4">
+      <c r="EU4">
         <v>1.975086749121147</v>
       </c>
-      <c r="DA4">
+      <c r="EV4">
         <v>1.975086749121147</v>
       </c>
-      <c r="DB4">
+      <c r="EW4">
         <v>1.975086749121147</v>
       </c>
-      <c r="DC4">
+      <c r="EX4">
         <v>1.975086749121147</v>
       </c>
-      <c r="DD4">
+      <c r="EY4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="EZ4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FA4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FB4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FC4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FD4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FE4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FF4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="FG4">
         <v>1.975086749120692</v>
       </c>
-      <c r="DE4">
+      <c r="FH4">
         <v>1.975086749120692</v>
       </c>
-      <c r="DF4">
+      <c r="FI4">
         <v>1.975086749120692</v>
       </c>
-      <c r="DG4">
+      <c r="FJ4">
         <v>1.975086749120692</v>
       </c>
-      <c r="DH4">
+      <c r="FK4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DI4">
+      <c r="FL4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DJ4">
+      <c r="FM4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DK4">
+      <c r="FN4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DL4">
+      <c r="FO4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DM4">
+      <c r="FP4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DN4">
+      <c r="FQ4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DO4">
+      <c r="FR4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DP4">
+      <c r="FS4">
         <v>1.973195708863386</v>
       </c>
-      <c r="DQ4">
+      <c r="FT4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="FU4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="FV4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="FW4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="FX4">
+        <v>1.973195708863386</v>
+      </c>
+      <c r="FY4">
         <v>1.973195708862931</v>
       </c>
-      <c r="DR4">
-        <v>1.973195708862931</v>
-      </c>
-      <c r="DS4">
+      <c r="FZ4">
         <v>1.973195708862477</v>
       </c>
-      <c r="DT4">
+      <c r="GA4">
+        <v>1.973195708862477</v>
+      </c>
+      <c r="GB4">
+        <v>1.973195708862477</v>
+      </c>
+      <c r="GC4">
         <v>1.944212153974377</v>
       </c>
-      <c r="DU4">
+      <c r="GD4">
         <v>1.944212153974377</v>
       </c>
-      <c r="DV4">
+      <c r="GE4">
         <v>1.944212153974377</v>
       </c>
-      <c r="DW4">
+      <c r="GF4">
         <v>1.944212153974377</v>
       </c>
-      <c r="DX4">
+      <c r="GG4">
         <v>1.944212153973695</v>
       </c>
-      <c r="DY4">
+      <c r="GH4">
+        <v>1.944212153973695</v>
+      </c>
+      <c r="GI4">
+        <v>1.944212153973695</v>
+      </c>
+      <c r="GJ4">
+        <v>1.944212153973695</v>
+      </c>
+      <c r="GK4">
         <v>1.952089136819041</v>
       </c>
-      <c r="DZ4">
-        <v>1.952089136819041</v>
-      </c>
-      <c r="EA4">
+      <c r="GL4">
         <v>1.952089136818586</v>
       </c>
-      <c r="EB4">
-        <v>1.952089136818586</v>
-      </c>
-      <c r="EC4">
+      <c r="GM4">
         <v>3.842115817237755</v>
       </c>
-      <c r="ED4">
+      <c r="GN4">
         <v>3.842115817237755</v>
       </c>
-      <c r="EE4">
+      <c r="GO4">
         <v>3.842115817237755</v>
       </c>
-      <c r="EF4">
+      <c r="GP4">
         <v>3.842115817237755</v>
       </c>
-      <c r="EG4">
+      <c r="GQ4">
         <v>3.842115817237755</v>
       </c>
-      <c r="EH4">
+      <c r="GR4">
         <v>3.842115817237755</v>
       </c>
-      <c r="EI4">
+      <c r="GS4">
         <v>3.842115817237755</v>
       </c>
-      <c r="EJ4">
+      <c r="GT4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="GU4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="GV4">
+        <v>3.842115817237755</v>
+      </c>
+      <c r="GW4">
         <v>3.842043057530418</v>
       </c>
-      <c r="EK4">
+      <c r="GX4">
+        <v>3.842043057530418</v>
+      </c>
+      <c r="GY4">
+        <v>3.842043057530418</v>
+      </c>
+      <c r="GZ4">
         <v>3.830677147427423</v>
       </c>
-      <c r="EL4">
+      <c r="HA4">
         <v>3.830677147427423</v>
       </c>
-      <c r="EM4">
+      <c r="HB4">
         <v>3.830677147427423</v>
       </c>
-      <c r="EN4">
+      <c r="HC4">
         <v>3.830677147427423</v>
       </c>
-      <c r="EO4">
+      <c r="HD4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="HE4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="HF4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="HG4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="HH4">
+        <v>3.830604387793073</v>
+      </c>
+      <c r="HI4">
         <v>3.830604387793073</v>
       </c>
     </row>

--- a/interconnection_testing.xlsx
+++ b/interconnection_testing.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="339">
   <si>
     <t>-00011110+</t>
   </si>
@@ -49,16 +49,76 @@
     <t>I_MP</t>
   </si>
   <si>
+    <t>-(1110)(0001)+</t>
+  </si>
+  <si>
+    <t>-(0010)(1101)+</t>
+  </si>
+  <si>
+    <t>-(0001)(1110)+</t>
+  </si>
+  <si>
+    <t>-+-(1110)(0001)+</t>
+  </si>
+  <si>
+    <t>-+-(0010)(1101)+</t>
+  </si>
+  <si>
+    <t>-(1101)(0010)+</t>
+  </si>
+  <si>
+    <t>-(0111)(0010)+</t>
+  </si>
+  <si>
+    <t>-+-(0001)(1011)+</t>
+  </si>
+  <si>
+    <t>-(1101)(1000)+</t>
+  </si>
+  <si>
+    <t>-(1011)(0001)+</t>
+  </si>
+  <si>
+    <t>-(0100)(1110)+</t>
+  </si>
+  <si>
+    <t>-+-(1101)(1000)+</t>
+  </si>
+  <si>
+    <t>-(1000)(1101)+</t>
+  </si>
+  <si>
+    <t>-(1110)(0100)+</t>
+  </si>
+  <si>
+    <t>-(1011)(0100)+</t>
+  </si>
+  <si>
+    <t>-+-(1000)(0111)+</t>
+  </si>
+  <si>
+    <t>-(0111)(1000)+</t>
+  </si>
+  <si>
+    <t>-+-(1011)(0100)+</t>
+  </si>
+  <si>
+    <t>-(0100)(1011)+</t>
+  </si>
+  <si>
+    <t>-(1000)(0111)+</t>
+  </si>
+  <si>
     <t>-0110+-0011+</t>
   </si>
   <si>
-    <t>-1001+-1100+</t>
+    <t>-1001+-0011+</t>
   </si>
   <si>
     <t>-0110+-1100+</t>
   </si>
   <si>
-    <t>-1001+-0011+</t>
+    <t>-1100+-1001+</t>
   </si>
   <si>
     <t>-1100+-0110+</t>
@@ -67,67 +127,202 @@
     <t>-0011+-1001+</t>
   </si>
   <si>
-    <t>-+-(1001)1100+</t>
+    <t>-(0001)(1110)+-+</t>
   </si>
   <si>
-    <t>-+-(0110)1100+</t>
+    <t>-(1101)+-(1000)+</t>
+  </si>
+  <si>
+    <t>-(0111)+-(1000)+</t>
+  </si>
+  <si>
+    <t>-(1011)+-(0001)+</t>
+  </si>
+  <si>
+    <t>-(0011)+-(1001)+</t>
+  </si>
+  <si>
+    <t>-+-0011(1001)+</t>
+  </si>
+  <si>
+    <t>-0011(0110)+</t>
+  </si>
+  <si>
+    <t>-0011(1001)+</t>
+  </si>
+  <si>
+    <t>-1100(1001)+</t>
+  </si>
+  <si>
+    <t>-1100(0110)+</t>
+  </si>
+  <si>
+    <t>-(0110)0011+</t>
+  </si>
+  <si>
+    <t>-(0110)1100+</t>
+  </si>
+  <si>
+    <t>-(1001)1100+</t>
+  </si>
+  <si>
+    <t>-(1001)0011+</t>
+  </si>
+  <si>
+    <t>-00(0110)11+</t>
+  </si>
+  <si>
+    <t>-11(1001)00+</t>
   </si>
   <si>
     <t>-00(1001)11+</t>
   </si>
   <si>
-    <t>-00(0110)11+</t>
-  </si>
-  <si>
     <t>-11(0110)00+</t>
-  </si>
-  <si>
-    <t>-11(1001)00+</t>
-  </si>
-  <si>
-    <t>-+-11(0110)00+</t>
   </si>
   <si>
     <t>-+-11(1001)00+</t>
   </si>
   <si>
-    <t>-+-00(0110)11+</t>
-  </si>
-  <si>
-    <t>-+-00(1001)11+</t>
+    <t>-0011(0110)+-+</t>
   </si>
   <si>
     <t>-1100(1001)+-+</t>
   </si>
   <si>
-    <t>-00(0110)11+-+</t>
+    <t>-0011(1001)+-+</t>
   </si>
   <si>
     <t>-11(0110)00+-+</t>
   </si>
   <si>
-    <t>-11(1001)+-00+</t>
+    <t>-00(1001)11+-+</t>
+  </si>
+  <si>
+    <t>-00(0110)11+-+</t>
+  </si>
+  <si>
+    <t>-0110+-(0011)+</t>
+  </si>
+  <si>
+    <t>-1001+-(1100)+</t>
+  </si>
+  <si>
+    <t>-1001+-(0011)+</t>
+  </si>
+  <si>
+    <t>-0110+-(1100)+</t>
+  </si>
+  <si>
+    <t>-(0011)+-0110+</t>
+  </si>
+  <si>
+    <t>-00(1001)+-11+</t>
   </si>
   <si>
     <t>-11(0110)+-00+</t>
   </si>
   <si>
-    <t>-00(1001)+-11+</t>
+    <t>-00+-(0110)11+</t>
   </si>
   <si>
-    <t>-00(0110)+-11+</t>
+    <t>-11+-(0110)00+</t>
   </si>
   <si>
-    <t>-00+-(0110)11+</t>
+    <t>-00+-(1001)11+</t>
+  </si>
+  <si>
+    <t>-11+-00(0110)+</t>
+  </si>
+  <si>
+    <t>-00+-11(0110)+</t>
+  </si>
+  <si>
+    <t>-1100+-(0110)+</t>
+  </si>
+  <si>
+    <t>-0011+-(1001)+</t>
+  </si>
+  <si>
+    <t>-1110+-(0100)+</t>
+  </si>
+  <si>
+    <t>-1110+-(0001)+</t>
+  </si>
+  <si>
+    <t>-0100+-(1011)+</t>
+  </si>
+  <si>
+    <t>-0001+-(1011)+</t>
+  </si>
+  <si>
+    <t>-1101+-(1000)+</t>
+  </si>
+  <si>
+    <t>-1011+-(0001)+</t>
+  </si>
+  <si>
+    <t>-(1000)+-0111+</t>
+  </si>
+  <si>
+    <t>-(0111)+-0010+</t>
+  </si>
+  <si>
+    <t>-(1101)+-1000+</t>
+  </si>
+  <si>
+    <t>-(1000)+-1101+</t>
+  </si>
+  <si>
+    <t>-(1001)(1100)+</t>
+  </si>
+  <si>
+    <t>-(0110)(1100)+</t>
+  </si>
+  <si>
+    <t>-(0110)(0011)+</t>
+  </si>
+  <si>
+    <t>-(1001)(0011)+</t>
+  </si>
+  <si>
+    <t>-(1100)(1001)+</t>
+  </si>
+  <si>
+    <t>-(0011)(1001)+</t>
+  </si>
+  <si>
+    <t>-(1100)(0110)+</t>
+  </si>
+  <si>
+    <t>-+-(1100)(0110)+</t>
+  </si>
+  <si>
+    <t>-+-(0110)(0011)+</t>
+  </si>
+  <si>
+    <t>-01101100+</t>
+  </si>
+  <si>
+    <t>-+-00110110+</t>
   </si>
   <si>
     <t>-10010011+</t>
   </si>
   <si>
+    <t>-+-10011100+</t>
+  </si>
+  <si>
+    <t>-+-01101100+</t>
+  </si>
+  <si>
+    <t>-+-10010011+</t>
+  </si>
+  <si>
     <t>-+-11000110+</t>
   </si>
   <si>
-    <t>-+-10011100+</t>
+    <t>-+-01100011+</t>
   </si>
   <si>
     <t>-+-00111001+</t>
@@ -136,109 +331,106 @@
     <t>-01100011+</t>
   </si>
   <si>
-    <t>-+-10010011+</t>
+    <t>-+-11001001+</t>
   </si>
   <si>
     <t>-10011100+</t>
   </si>
   <si>
-    <t>-+-01101100+</t>
-  </si>
-  <si>
-    <t>-01101100+</t>
-  </si>
-  <si>
-    <t>-+-11001001+</t>
+    <t>-11000110+</t>
   </si>
   <si>
     <t>-11001001+</t>
   </si>
   <si>
-    <t>-11000110+</t>
+    <t>-00111001+</t>
   </si>
   <si>
     <t>-00110110+</t>
   </si>
   <si>
-    <t>-00111001+</t>
+    <t>-+-11011000+</t>
+  </si>
+  <si>
+    <t>-+-10000111+</t>
+  </si>
+  <si>
+    <t>-00011011+</t>
+  </si>
+  <si>
+    <t>-00101101+</t>
+  </si>
+  <si>
+    <t>-+-11100100+</t>
+  </si>
+  <si>
+    <t>-+-00100111+</t>
+  </si>
+  <si>
+    <t>-10110001+</t>
+  </si>
+  <si>
+    <t>-10000111+</t>
+  </si>
+  <si>
+    <t>-+-10110001+</t>
+  </si>
+  <si>
+    <t>-+-11010010+</t>
   </si>
   <si>
     <t>-11010010+</t>
   </si>
   <si>
-    <t>-11100001+</t>
+    <t>-10001101+</t>
   </si>
   <si>
-    <t>-00011011+</t>
+    <t>-01001011+</t>
   </si>
   <si>
-    <t>-+-01111000+</t>
+    <t>-+-00101101+</t>
+  </si>
+  <si>
+    <t>-+-01001011+</t>
+  </si>
+  <si>
+    <t>-+-10110100+</t>
+  </si>
+  <si>
+    <t>-10110100+</t>
+  </si>
+  <si>
+    <t>-+-10001101+</t>
+  </si>
+  <si>
+    <t>-01001110+</t>
+  </si>
+  <si>
+    <t>-+-11100001+</t>
+  </si>
+  <si>
+    <t>-+-01110010+</t>
   </si>
   <si>
     <t>-11011000+</t>
   </si>
   <si>
-    <t>-+-00101101+</t>
+    <t>-11100100+</t>
   </si>
   <si>
-    <t>-+-00011110+</t>
+    <t>-01111000+</t>
   </si>
   <si>
-    <t>-10110100+</t>
+    <t>-11100001+</t>
   </si>
   <si>
     <t>-00100111+</t>
   </si>
   <si>
-    <t>-00101101+</t>
-  </si>
-  <si>
-    <t>-01111000+</t>
-  </si>
-  <si>
-    <t>-+-11011000+</t>
-  </si>
-  <si>
-    <t>-11100100+</t>
-  </si>
-  <si>
-    <t>-10001101+</t>
-  </si>
-  <si>
-    <t>-+-11010010+</t>
-  </si>
-  <si>
-    <t>-+-00011011+</t>
-  </si>
-  <si>
-    <t>-10000111+</t>
-  </si>
-  <si>
-    <t>-+-01001110+</t>
-  </si>
-  <si>
-    <t>-+-01001011+</t>
-  </si>
-  <si>
-    <t>-01001110+</t>
-  </si>
-  <si>
-    <t>-01001011+</t>
-  </si>
-  <si>
     <t>-01110010+</t>
   </si>
   <si>
-    <t>-+-00100111+</t>
-  </si>
-  <si>
-    <t>-+-10001101+</t>
-  </si>
-  <si>
-    <t>-+-11100001+</t>
-  </si>
-  <si>
-    <t>-10110001+</t>
+    <t>-01101100+-+</t>
   </si>
   <si>
     <t>-10010011+-+</t>
@@ -247,73 +439,73 @@
     <t>-10011100+-+</t>
   </si>
   <si>
-    <t>-01100011+-+</t>
+    <t>-11100100+-+</t>
   </si>
   <si>
-    <t>-01101100+-+</t>
+    <t>-00100111+-+</t>
+  </si>
+  <si>
+    <t>-00111001+-+</t>
   </si>
   <si>
     <t>-11001001+-+</t>
   </si>
   <si>
-    <t>-00110110+-+</t>
-  </si>
-  <si>
-    <t>-11011000+-+</t>
-  </si>
-  <si>
-    <t>-00100111+-+</t>
+    <t>-11000110+-+</t>
   </si>
   <si>
     <t>-00011011+-+</t>
   </si>
   <si>
-    <t>-00011110+-+</t>
+    <t>-10110100+-+</t>
+  </si>
+  <si>
+    <t>-11100001+-+</t>
+  </si>
+  <si>
+    <t>-01110010+-+</t>
+  </si>
+  <si>
+    <t>-10110001+-+</t>
+  </si>
+  <si>
+    <t>-01001110+-+</t>
+  </si>
+  <si>
+    <t>-00101101+-+</t>
   </si>
   <si>
     <t>-10000111+-+</t>
   </si>
   <si>
-    <t>-01110010+-+</t>
-  </si>
-  <si>
-    <t>-01001110+-+</t>
-  </si>
-  <si>
-    <t>-11100001+-+</t>
-  </si>
-  <si>
-    <t>-10110100+-+</t>
-  </si>
-  <si>
-    <t>-10110001+-+</t>
-  </si>
-  <si>
-    <t>-01111000+-+</t>
+    <t>-10001101+-+</t>
   </si>
   <si>
     <t>-11010010+-+</t>
   </si>
   <si>
-    <t>-1011+-0100+</t>
+    <t>-00011110+-+</t>
+  </si>
+  <si>
+    <t>-0100+-1011+</t>
+  </si>
+  <si>
+    <t>-0111+-0010+</t>
+  </si>
+  <si>
+    <t>-1011+-0001+</t>
   </si>
   <si>
     <t>-1000+-0111+</t>
   </si>
   <si>
-    <t>-1000+-1101+</t>
+    <t>-0100+-1110+</t>
   </si>
   <si>
     <t>-0111+-1000+</t>
   </si>
   <si>
-    <t>-0010+-0111+</t>
-  </si>
-  <si>
-    <t>-1101+-0010+</t>
-  </si>
-  <si>
-    <t>-0010+-1101+</t>
+    <t>-1011+-0100+</t>
   </si>
   <si>
     <t>-1101+-1000+</t>
@@ -322,28 +514,58 @@
     <t>-1110+-0001+</t>
   </si>
   <si>
+    <t>-0010+-1101+</t>
+  </si>
+  <si>
+    <t>-0001+-1110+</t>
+  </si>
+  <si>
+    <t>-1101+-0010+</t>
+  </si>
+  <si>
+    <t>-1110+-0100+</t>
+  </si>
+  <si>
+    <t>-(0110)(0011)+-+</t>
+  </si>
+  <si>
+    <t>-(0111)00+-10+</t>
+  </si>
+  <si>
+    <t>-00(1110)+-01+</t>
+  </si>
+  <si>
     <t>-11(0010)+-01+</t>
   </si>
   <si>
-    <t>-11(0100)+-10+</t>
+    <t>-10+-11(0100)+</t>
   </si>
   <si>
-    <t>-11(1000)+-01+</t>
+    <t>-01+-11(1000)+</t>
   </si>
   <si>
-    <t>-00(1011)+-01+</t>
+    <t>-01+-00(1110)+</t>
+  </si>
+  <si>
+    <t>-01+-11(0010)+</t>
+  </si>
+  <si>
+    <t>-10+-11(0001)+</t>
   </si>
   <si>
     <t>-01+-(0010)11+</t>
   </si>
   <si>
+    <t>-01+-(1000)11+</t>
+  </si>
+  <si>
+    <t>-01+-(1011)00+</t>
+  </si>
+  <si>
     <t>-10+-(0111)00+</t>
   </si>
   <si>
-    <t>-01+-(1110)00+</t>
-  </si>
-  <si>
-    <t>-10+-(0100)11+</t>
+    <t>-10(1101)+-00+</t>
   </si>
   <si>
     <t>-01(0010)+-11+</t>
@@ -352,28 +574,31 @@
     <t>-01(1110)+-00+</t>
   </si>
   <si>
-    <t>-10(1101)+-00+</t>
+    <t>-10(0001)+-11+</t>
   </si>
   <si>
-    <t>-10(0111)+-00+</t>
+    <t>-(0001)10+-11+</t>
   </si>
   <si>
-    <t>-01(1011)+-00+</t>
+    <t>-(0100)10+-11+</t>
+  </si>
+  <si>
+    <t>-(1101)10+-00+</t>
+  </si>
+  <si>
+    <t>-(0010)01+-11+</t>
+  </si>
+  <si>
+    <t>-10(0100)+-11+</t>
   </si>
   <si>
     <t>-110110+-00+</t>
   </si>
   <si>
-    <t>-011011+-00+</t>
-  </si>
-  <si>
-    <t>-011000+-11+</t>
-  </si>
-  <si>
     <t>-100100+-11+</t>
   </si>
   <si>
-    <t>-010010+-11+</t>
+    <t>-000110+-11+</t>
   </si>
   <si>
     <t>-100111+-00+</t>
@@ -382,73 +607,58 @@
     <t>-001001+-11+</t>
   </si>
   <si>
-    <t>-011110+-00+</t>
+    <t>-00+-10(1101)+</t>
   </si>
   <si>
-    <t>-111001+-00+</t>
+    <t>-00+-(1011)01+</t>
   </si>
   <si>
-    <t>-000110+-11+</t>
+    <t>-11+-(0100)10+</t>
+  </si>
+  <si>
+    <t>-00+-(1101)10+</t>
   </si>
   <si>
     <t>-11+-(0001)10+</t>
   </si>
   <si>
-    <t>-00+-(1110)01+</t>
+    <t>-11+-10(0100)+</t>
   </si>
   <si>
-    <t>-00+-(1101)10+</t>
+    <t>-00+-10(0111)+</t>
   </si>
   <si>
-    <t>-11+-(1000)01+</t>
-  </si>
-  <si>
-    <t>-00+-(1011)01+</t>
+    <t>-00+-011011+</t>
   </si>
   <si>
     <t>-00+-111001+</t>
   </si>
   <si>
-    <t>-00+-011011+</t>
+    <t>-00+-110110+</t>
+  </si>
+  <si>
+    <t>-11+-100100+</t>
   </si>
   <si>
     <t>-11+-011000+</t>
   </si>
   <si>
-    <t>-11+-100100+</t>
-  </si>
-  <si>
-    <t>-11+-001001+</t>
-  </si>
-  <si>
     <t>-00+-100111+</t>
   </si>
   <si>
-    <t>-00+-011110+</t>
+    <t>-11+-000110+</t>
+  </si>
+  <si>
+    <t>-11+-010010+</t>
   </si>
   <si>
     <t>-00+-101101+</t>
   </si>
   <si>
-    <t>-11+-010010+</t>
-  </si>
-  <si>
-    <t>-01(1011)00+</t>
-  </si>
-  <si>
-    <t>-10(0100)11+</t>
-  </si>
-  <si>
-    <t>-01(1110)00+</t>
+    <t>-11+-100001+</t>
   </si>
   <si>
     <t>-10(1101)00+</t>
-  </si>
-  <si>
-    <t>-10(0111)00+</t>
-  </si>
-  <si>
-    <t>-01(1000)11+</t>
   </si>
   <si>
     <t>-10(0001)11+</t>
@@ -457,235 +667,373 @@
     <t>-01(0010)11+</t>
   </si>
   <si>
-    <t>-+-(0111)1000+</t>
+    <t>-10(0100)11+</t>
   </si>
   <si>
-    <t>-+-(1011)0001+</t>
+    <t>-01(1011)00+</t>
+  </si>
+  <si>
+    <t>-01(1000)11+</t>
+  </si>
+  <si>
+    <t>-01(1110)00+</t>
+  </si>
+  <si>
+    <t>-10(0111)00+</t>
+  </si>
+  <si>
+    <t>-0001(1011)+</t>
+  </si>
+  <si>
+    <t>-(1110)0001+</t>
+  </si>
+  <si>
+    <t>-0001(1110)+</t>
+  </si>
+  <si>
+    <t>-+-10(1101)00+</t>
+  </si>
+  <si>
+    <t>-+-0111(0010)+</t>
+  </si>
+  <si>
+    <t>-1101(0010)+</t>
+  </si>
+  <si>
+    <t>-+-00(1011)01+</t>
+  </si>
+  <si>
+    <t>-11(0001)10+</t>
+  </si>
+  <si>
+    <t>-+-10(0001)11+</t>
+  </si>
+  <si>
+    <t>-+-01(0010)11+</t>
+  </si>
+  <si>
+    <t>-+-0100(1011)+</t>
+  </si>
+  <si>
+    <t>-(0010)1101+</t>
+  </si>
+  <si>
+    <t>-0100(1110)+</t>
+  </si>
+  <si>
+    <t>-(0100)1110+</t>
+  </si>
+  <si>
+    <t>-(0111)0010+</t>
+  </si>
+  <si>
+    <t>-00(1101)10+</t>
+  </si>
+  <si>
+    <t>-+-00(1110)01+</t>
+  </si>
+  <si>
+    <t>-11(0010)01+</t>
+  </si>
+  <si>
+    <t>-0100(1011)+</t>
+  </si>
+  <si>
+    <t>-(1011)0001+</t>
+  </si>
+  <si>
+    <t>-0010(0111)+</t>
+  </si>
+  <si>
+    <t>-+-00(0111)10+</t>
+  </si>
+  <si>
+    <t>-+-1101(1000)+</t>
+  </si>
+  <si>
+    <t>-1000(0111)+</t>
+  </si>
+  <si>
+    <t>-1110(0100)+</t>
+  </si>
+  <si>
+    <t>-0111(1000)+</t>
+  </si>
+  <si>
+    <t>-1000(1101)+</t>
+  </si>
+  <si>
+    <t>-(1101)0010+</t>
+  </si>
+  <si>
+    <t>-+-11(0010)01+</t>
+  </si>
+  <si>
+    <t>-1011(0100)+</t>
   </si>
   <si>
     <t>-+-01(1011)00+</t>
   </si>
   <si>
+    <t>-+-0100(1110)+</t>
+  </si>
+  <si>
+    <t>-(1000)1101+</t>
+  </si>
+  <si>
+    <t>-(0001)1110+</t>
+  </si>
+  <si>
+    <t>-1011(0001)+</t>
+  </si>
+  <si>
+    <t>-1101(1000)+</t>
+  </si>
+  <si>
     <t>-00(1110)01+</t>
   </si>
   <si>
-    <t>-+-(1110)0100+</t>
+    <t>-+-1000(1101)+</t>
   </si>
   <si>
-    <t>-+-(1000)1101+</t>
+    <t>-0010(1101)+</t>
   </si>
   <si>
-    <t>-+-(0010)1101+</t>
+    <t>-+-0111(1000)+</t>
   </si>
   <si>
-    <t>-+-11(0100)10+</t>
-  </si>
-  <si>
-    <t>-+-(0001)1110+</t>
-  </si>
-  <si>
-    <t>-11(0010)01+</t>
-  </si>
-  <si>
-    <t>-+-(0010)0111+</t>
-  </si>
-  <si>
-    <t>-+-10(0001)11+</t>
-  </si>
-  <si>
-    <t>-+-00(1110)01+</t>
-  </si>
-  <si>
-    <t>-11(0001)10+</t>
-  </si>
-  <si>
-    <t>-+-00(1011)01+</t>
-  </si>
-  <si>
-    <t>-+-(0001)1011+</t>
-  </si>
-  <si>
-    <t>-+-(0100)1011+</t>
-  </si>
-  <si>
-    <t>-+-01(0010)11+</t>
+    <t>-1110(0001)+</t>
   </si>
   <si>
     <t>-+-(0111)0010+</t>
   </si>
   <si>
-    <t>-00(1101)10+</t>
+    <t>-0111(0010)+</t>
   </si>
   <si>
-    <t>-+-11(0001)10+</t>
+    <t>-+-(1000)0111+</t>
   </si>
   <si>
-    <t>-+-(1110)0001+</t>
+    <t>-+-11(1000)01+</t>
   </si>
   <si>
-    <t>-+-00(1101)10+</t>
+    <t>-(1011)0100+</t>
+  </si>
+  <si>
+    <t>-(1101)1000+</t>
+  </si>
+  <si>
+    <t>-(0001)1011+</t>
+  </si>
+  <si>
+    <t>-11(0100)10+</t>
+  </si>
+  <si>
+    <t>-(1110)0100+</t>
+  </si>
+  <si>
+    <t>-(0100)1011+</t>
   </si>
   <si>
     <t>-11(1000)01+</t>
   </si>
   <si>
+    <t>-(0111)1000+</t>
+  </si>
+  <si>
     <t>-00(1011)01+</t>
   </si>
   <si>
-    <t>-11(0100)10+</t>
+    <t>-(1000)0111+</t>
   </si>
   <si>
-    <t>-0010(1101)+-+</t>
+    <t>-+-1101(0010)+</t>
   </si>
   <si>
-    <t>-11(1000)01+-+</t>
+    <t>-+-1110(0001)+</t>
   </si>
   <si>
-    <t>-1101(0010)+-+</t>
+    <t>-(0100)1011+-+</t>
+  </si>
+  <si>
+    <t>-01(1000)11+-+</t>
+  </si>
+  <si>
+    <t>-1110(0001)+-+</t>
+  </si>
+  <si>
+    <t>-0111(1000)+-+</t>
+  </si>
+  <si>
+    <t>-1011(0001)+-+</t>
+  </si>
+  <si>
+    <t>-1000(0111)+-+</t>
+  </si>
+  <si>
+    <t>-00(1110)01+-+</t>
+  </si>
+  <si>
+    <t>-00(1101)10+-+</t>
   </si>
   <si>
     <t>-11(0100)10+-+</t>
   </si>
   <si>
-    <t>-00(1110)01+-+</t>
+    <t>-00(1011)01+-+</t>
+  </si>
+  <si>
+    <t>-11(0010)01+-+</t>
+  </si>
+  <si>
+    <t>-0001(1110)+-+</t>
+  </si>
+  <si>
+    <t>-1000(1101)+-+</t>
+  </si>
+  <si>
+    <t>-11(0001)10+-+</t>
   </si>
   <si>
     <t>-00(0111)10+-+</t>
   </si>
   <si>
-    <t>-10(0111)00+-+</t>
+    <t>-(0001)1011+-+</t>
   </si>
   <si>
-    <t>-11(0010)01+-+</t>
+    <t>-(0100)1110+-+</t>
   </si>
   <si>
-    <t>-01(1011)00+-+</t>
+    <t>-(0111)0010+-+</t>
   </si>
   <si>
-    <t>-0111(1000)+-+</t>
+    <t>-10(0011)01+</t>
   </si>
   <si>
-    <t>-11(0001)10+-+</t>
+    <t>-01(1100)10+</t>
   </si>
   <si>
-    <t>-00(1101)10+-+</t>
-  </si>
-  <si>
-    <t>-00(1011)01+-+</t>
-  </si>
-  <si>
-    <t>-0111(0010)+-+</t>
-  </si>
-  <si>
-    <t>-10(0001)11+-+</t>
-  </si>
-  <si>
-    <t>-1101(1000)+-+</t>
-  </si>
-  <si>
-    <t>-1110(0100)+-+</t>
-  </si>
-  <si>
-    <t>-0010(0111)+-+</t>
+    <t>-01(0011)10+</t>
   </si>
   <si>
     <t>-10(1100)01+</t>
   </si>
   <si>
-    <t>-10(0011)01+</t>
+    <t>-0110(1100)+</t>
   </si>
   <si>
-    <t>-01(0011)10+</t>
+    <t>-+-1001(1100)+</t>
   </si>
   <si>
-    <t>-01(1100)10+</t>
+    <t>-+-0110(0011)+</t>
+  </si>
+  <si>
+    <t>-1001(1100)+</t>
+  </si>
+  <si>
+    <t>-1001(0011)+</t>
+  </si>
+  <si>
+    <t>-0110(0011)+</t>
+  </si>
+  <si>
+    <t>-+-0110(1100)+</t>
+  </si>
+  <si>
+    <t>-(0011)1001+</t>
+  </si>
+  <si>
+    <t>-(1100)0110+</t>
+  </si>
+  <si>
+    <t>-(1100)1001+</t>
   </si>
   <si>
     <t>-+-10(0011)01+</t>
   </si>
   <si>
-    <t>-+-(0011)1001+</t>
+    <t>-+-(0011)0110+</t>
+  </si>
+  <si>
+    <t>-+-01(0011)10+</t>
   </si>
   <si>
     <t>-+-(1100)0110+</t>
   </si>
   <si>
-    <t>-+-01(1100)10+</t>
+    <t>-0110(0011)+-+</t>
   </si>
   <si>
-    <t>-0110(1100)+-+</t>
+    <t>-(1100)0110+-+</t>
   </si>
   <si>
-    <t>-01(0011)10+-+</t>
+    <t>-001011+-01+</t>
   </si>
   <si>
     <t>-011100+-10+</t>
   </si>
   <si>
+    <t>-000111+-10+</t>
+  </si>
+  <si>
+    <t>-111000+-01+</t>
+  </si>
+  <si>
     <t>-010011+-10+</t>
   </si>
   <si>
-    <t>-000111+-10+</t>
+    <t>-100011+-01+</t>
   </si>
   <si>
-    <t>-001011+-01+</t>
+    <t>-110010+-01+</t>
   </si>
   <si>
     <t>-001110+-01+</t>
   </si>
   <si>
-    <t>-001101+-10+</t>
-  </si>
-  <si>
-    <t>-110010+-01+</t>
-  </si>
-  <si>
-    <t>-101100+-01+</t>
-  </si>
-  <si>
     <t>-110100+-10+</t>
-  </si>
-  <si>
-    <t>-111000+-01+</t>
   </si>
   <si>
     <t>-01(1100)+-10+</t>
   </si>
   <si>
-    <t>-10(0011)+-01+</t>
+    <t>-(1100)01+-10+</t>
   </si>
   <si>
     <t>-10(1100)+-01+</t>
   </si>
   <si>
-    <t>-01+-001110+</t>
+    <t>-10+-001101+</t>
+  </si>
+  <si>
+    <t>-01+-101100+</t>
+  </si>
+  <si>
+    <t>-10+-011100+</t>
+  </si>
+  <si>
+    <t>-01+-100011+</t>
+  </si>
+  <si>
+    <t>-10+-110100+</t>
   </si>
   <si>
     <t>-01+-110010+</t>
   </si>
   <si>
-    <t>-01+-001011+</t>
+    <t>-01+-001110+</t>
+  </si>
+  <si>
+    <t>-01+-111000+</t>
   </si>
   <si>
     <t>-10+-000111+</t>
   </si>
   <si>
-    <t>-10+-110100+</t>
+    <t>-10+-01(1100)+</t>
   </si>
   <si>
-    <t>-10+-110001+</t>
-  </si>
-  <si>
-    <t>-10+-010011+</t>
-  </si>
-  <si>
-    <t>-10+-001101+</t>
-  </si>
-  <si>
-    <t>-01+-(1100)10+</t>
-  </si>
-  <si>
-    <t>-10+-(0011)01+</t>
+    <t>-10+-01(0011)+</t>
   </si>
 </sst>
 </file>
@@ -36268,13 +36616,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HI4"/>
+  <dimension ref="A1:LX4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:217">
+    <row r="1" spans="1:336">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -36303,1281 +36651,1995 @@
         <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DB1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="JC1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="FI1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="FN1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FO1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FP1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FQ1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FR1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="FS1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="FY1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="FZ1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="GA1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="GG1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="GH1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="GI1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="GJ1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="GK1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="GL1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="GM1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="GN1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="GO1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="GP1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="GQ1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="GR1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="GS1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="GT1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="GU1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="GV1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="GW1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="GX1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="GY1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="GZ1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="HA1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="HB1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="HC1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="HD1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="HE1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="HF1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="HG1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="HH1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="HI1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:217">
+      <c r="JD1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:336">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
+        <v>8.807316460811604</v>
+      </c>
+      <c r="C2">
+        <v>8.807316460811604</v>
+      </c>
+      <c r="D2">
+        <v>8.807316460811604</v>
+      </c>
+      <c r="E2">
+        <v>8.807316460811604</v>
+      </c>
+      <c r="F2">
+        <v>8.807316460811604</v>
+      </c>
+      <c r="G2">
+        <v>8.807316460811604</v>
+      </c>
+      <c r="H2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="I2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="J2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="K2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="L2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="M2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="N2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="O2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="P2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="Q2">
+        <v>8.807316460811009</v>
+      </c>
+      <c r="R2">
+        <v>8.807316460810414</v>
+      </c>
+      <c r="S2">
+        <v>8.807316460810414</v>
+      </c>
+      <c r="T2">
+        <v>8.807316460810414</v>
+      </c>
+      <c r="U2">
+        <v>8.807316460810414</v>
+      </c>
+      <c r="V2">
+        <v>8.807316460810414</v>
+      </c>
+      <c r="W2">
+        <v>8.807316460810414</v>
+      </c>
+      <c r="X2">
         <v>8.801120388643609</v>
       </c>
-      <c r="C2">
+      <c r="Y2">
         <v>8.801120388643609</v>
       </c>
-      <c r="D2">
+      <c r="Z2">
         <v>8.801120388643609</v>
       </c>
-      <c r="E2">
-        <v>8.801120388643609</v>
-      </c>
-      <c r="F2">
+      <c r="AA2">
         <v>8.788755512621808</v>
       </c>
-      <c r="G2">
+      <c r="AB2">
         <v>8.788755512621808</v>
       </c>
-      <c r="H2">
-        <v>8.001250091340133</v>
-      </c>
-      <c r="I2">
-        <v>8.001250091340133</v>
-      </c>
-      <c r="J2">
+      <c r="AC2">
+        <v>8.788755512621808</v>
+      </c>
+      <c r="AD2">
+        <v>8.761803328497814</v>
+      </c>
+      <c r="AE2">
+        <v>8.759253418121096</v>
+      </c>
+      <c r="AF2">
+        <v>8.759253418120947</v>
+      </c>
+      <c r="AG2">
+        <v>8.759253418120947</v>
+      </c>
+      <c r="AH2">
+        <v>8.732587395031514</v>
+      </c>
+      <c r="AI2">
+        <v>8.001250091341056</v>
+      </c>
+      <c r="AJ2">
+        <v>8.001250091341056</v>
+      </c>
+      <c r="AK2">
+        <v>8.001250091341056</v>
+      </c>
+      <c r="AL2">
+        <v>8.001250091341056</v>
+      </c>
+      <c r="AM2">
+        <v>8.001250091341056</v>
+      </c>
+      <c r="AN2">
+        <v>8.001250091339671</v>
+      </c>
+      <c r="AO2">
+        <v>8.001250091339671</v>
+      </c>
+      <c r="AP2">
+        <v>8.001250091339671</v>
+      </c>
+      <c r="AQ2">
+        <v>8.001250091339671</v>
+      </c>
+      <c r="AR2">
         <v>8.001250091338749</v>
       </c>
-      <c r="K2">
+      <c r="AS2">
         <v>8.001250091338749</v>
       </c>
-      <c r="L2">
+      <c r="AT2">
         <v>8.001250091338749</v>
       </c>
-      <c r="M2">
+      <c r="AU2">
         <v>8.001250091338749</v>
       </c>
-      <c r="N2">
+      <c r="AV2">
         <v>8.001250091338287</v>
       </c>
-      <c r="O2">
-        <v>8.001250091338287</v>
-      </c>
-      <c r="P2">
-        <v>8.001250091338287</v>
-      </c>
-      <c r="Q2">
-        <v>8.001250091338287</v>
-      </c>
-      <c r="R2">
+      <c r="AW2">
         <v>7.984416186743372</v>
       </c>
-      <c r="S2">
+      <c r="AX2">
+        <v>7.984416186743372</v>
+      </c>
+      <c r="AY2">
+        <v>7.984416186743372</v>
+      </c>
+      <c r="AZ2">
         <v>7.98441618674291</v>
       </c>
-      <c r="T2">
+      <c r="BA2">
         <v>7.98441618674291</v>
       </c>
-      <c r="U2">
+      <c r="BB2">
+        <v>7.98441618674291</v>
+      </c>
+      <c r="BC2">
+        <v>7.692257212424745</v>
+      </c>
+      <c r="BD2">
+        <v>7.692257212424745</v>
+      </c>
+      <c r="BE2">
+        <v>7.692257212424745</v>
+      </c>
+      <c r="BF2">
+        <v>7.692257212424745</v>
+      </c>
+      <c r="BG2">
+        <v>7.584037324358082</v>
+      </c>
+      <c r="BH2">
         <v>5.861708947088221</v>
       </c>
-      <c r="V2">
+      <c r="BI2">
         <v>5.861708947088221</v>
       </c>
-      <c r="W2">
-        <v>5.861708947088221</v>
-      </c>
-      <c r="X2">
-        <v>5.861708947088221</v>
-      </c>
-      <c r="Y2">
+      <c r="BJ2">
         <v>5.822102573298681</v>
       </c>
-      <c r="Z2">
+      <c r="BK2">
+        <v>5.822102573298681</v>
+      </c>
+      <c r="BL2">
+        <v>5.822102573298681</v>
+      </c>
+      <c r="BM2">
+        <v>5.822102573298376</v>
+      </c>
+      <c r="BN2">
+        <v>5.822102573298376</v>
+      </c>
+      <c r="BO2">
+        <v>5.731458910638328</v>
+      </c>
+      <c r="BP2">
+        <v>5.731458910638328</v>
+      </c>
+      <c r="BQ2">
+        <v>5.718834684803531</v>
+      </c>
+      <c r="BR2">
+        <v>5.718834684803531</v>
+      </c>
+      <c r="BS2">
+        <v>5.718834684803531</v>
+      </c>
+      <c r="BT2">
+        <v>5.718834684803531</v>
+      </c>
+      <c r="BU2">
+        <v>5.718834684803531</v>
+      </c>
+      <c r="BV2">
+        <v>5.718834684803531</v>
+      </c>
+      <c r="BW2">
+        <v>5.6579452302649</v>
+      </c>
+      <c r="BX2">
+        <v>5.6579452302649</v>
+      </c>
+      <c r="BY2">
+        <v>5.6579452302649</v>
+      </c>
+      <c r="BZ2">
+        <v>5.6579452302649</v>
+      </c>
+      <c r="CA2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CB2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CC2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CD2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CE2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CF2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CG2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CH2">
+        <v>5.332393487678822</v>
+      </c>
+      <c r="CI2">
+        <v>5.332393487677586</v>
+      </c>
+      <c r="CJ2">
+        <v>5.332393487677586</v>
+      </c>
+      <c r="CK2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AA2">
+      <c r="CL2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AB2">
+      <c r="CM2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AC2">
+      <c r="CN2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AD2">
+      <c r="CO2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AE2">
+      <c r="CP2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AF2">
+      <c r="CQ2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AG2">
+      <c r="CR2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AH2">
+      <c r="CS2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AI2">
+      <c r="CT2">
         <v>5.332393298878278</v>
       </c>
-      <c r="AJ2">
+      <c r="CU2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="CV2">
+        <v>5.332393298878278</v>
+      </c>
+      <c r="CW2">
         <v>5.332393298877041</v>
       </c>
-      <c r="AK2">
+      <c r="CX2">
         <v>5.332393298877041</v>
       </c>
-      <c r="AL2">
+      <c r="CY2">
         <v>5.332393298877041</v>
       </c>
-      <c r="AM2">
+      <c r="CZ2">
         <v>5.332393298877041</v>
       </c>
-      <c r="AN2">
+      <c r="DA2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AO2">
+      <c r="DB2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AP2">
+      <c r="DC2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AQ2">
+      <c r="DD2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AR2">
+      <c r="DE2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AS2">
+      <c r="DF2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AT2">
+      <c r="DG2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AU2">
+      <c r="DH2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AV2">
+      <c r="DI2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AW2">
+      <c r="DJ2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AX2">
+      <c r="DK2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AY2">
+      <c r="DL2">
         <v>5.332393298875804</v>
       </c>
-      <c r="AZ2">
+      <c r="DM2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BA2">
+      <c r="DN2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BB2">
+      <c r="DO2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BC2">
+      <c r="DP2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BD2">
+      <c r="DQ2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BE2">
+      <c r="DR2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BF2">
+      <c r="DS2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BG2">
+      <c r="DT2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BH2">
+      <c r="DU2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BI2">
+      <c r="DV2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BJ2">
+      <c r="DW2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BK2">
+      <c r="DX2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BL2">
+      <c r="DY2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BM2">
+      <c r="DZ2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BN2">
+      <c r="EA2">
         <v>5.332393298875804</v>
       </c>
-      <c r="BO2">
+      <c r="EB2">
+        <v>5.332393298875804</v>
+      </c>
+      <c r="EC2">
         <v>5.328386870950171</v>
       </c>
-      <c r="BP2">
+      <c r="ED2">
         <v>5.328386870950171</v>
       </c>
-      <c r="BQ2">
+      <c r="EE2">
         <v>5.328386870950171</v>
       </c>
-      <c r="BR2">
-        <v>5.328386870950171</v>
-      </c>
-      <c r="BS2">
+      <c r="EF2">
         <v>5.328386870948934</v>
       </c>
-      <c r="BT2">
+      <c r="EG2">
         <v>5.328386870948934</v>
       </c>
-      <c r="BU2">
+      <c r="EH2">
         <v>5.328386870948934</v>
       </c>
-      <c r="BV2">
+      <c r="EI2">
         <v>5.328386870948934</v>
       </c>
-      <c r="BW2">
+      <c r="EJ2">
         <v>5.328386870948934</v>
       </c>
-      <c r="BX2">
+      <c r="EK2">
+        <v>5.328386870948934</v>
+      </c>
+      <c r="EL2">
         <v>5.328386870947697</v>
       </c>
-      <c r="BY2">
+      <c r="EM2">
         <v>5.328386870947697</v>
       </c>
-      <c r="BZ2">
+      <c r="EN2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CA2">
+      <c r="EO2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CB2">
+      <c r="EP2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CC2">
+      <c r="EQ2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CD2">
+      <c r="ER2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CE2">
+      <c r="ES2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CF2">
+      <c r="ET2">
         <v>5.328386870947697</v>
       </c>
-      <c r="CG2">
+      <c r="EU2">
+        <v>5.328386870947697</v>
+      </c>
+      <c r="EV2">
         <v>5.328316008944133</v>
       </c>
-      <c r="CH2">
+      <c r="EW2">
         <v>5.328316008944133</v>
       </c>
-      <c r="CI2">
+      <c r="EX2">
         <v>5.328316008944133</v>
       </c>
-      <c r="CJ2">
+      <c r="EY2">
         <v>5.328316008944133</v>
       </c>
-      <c r="CK2">
+      <c r="EZ2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="FA2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="FB2">
+        <v>5.328316008944133</v>
+      </c>
+      <c r="FC2">
         <v>5.328316008943515</v>
       </c>
-      <c r="CL2">
+      <c r="FD2">
         <v>5.328316008943515</v>
       </c>
-      <c r="CM2">
+      <c r="FE2">
         <v>5.328316008943515</v>
       </c>
-      <c r="CN2">
+      <c r="FF2">
         <v>5.328316008943515</v>
       </c>
-      <c r="CO2">
+      <c r="FG2">
         <v>5.328316008943515</v>
       </c>
-      <c r="CP2">
+      <c r="FH2">
         <v>5.328316008943515</v>
       </c>
-      <c r="CQ2">
+      <c r="FI2">
+        <v>5.315497721955984</v>
+      </c>
+      <c r="FJ2">
         <v>4.534951375588803</v>
       </c>
-      <c r="CR2">
+      <c r="FK2">
         <v>4.534951375588803</v>
       </c>
-      <c r="CS2">
+      <c r="FL2">
         <v>4.534951375588803</v>
       </c>
-      <c r="CT2">
-        <v>4.534951375588803</v>
-      </c>
-      <c r="CU2">
+      <c r="FM2">
+        <v>4.524226195118532</v>
+      </c>
+      <c r="FN2">
+        <v>4.524226195118532</v>
+      </c>
+      <c r="FO2">
+        <v>4.524226195118379</v>
+      </c>
+      <c r="FP2">
+        <v>4.524226195118379</v>
+      </c>
+      <c r="FQ2">
+        <v>4.524226195118379</v>
+      </c>
+      <c r="FR2">
         <v>4.524226195118227</v>
       </c>
-      <c r="CV2">
+      <c r="FS2">
         <v>4.524226195118227</v>
       </c>
-      <c r="CW2">
+      <c r="FT2">
         <v>4.524226195118227</v>
       </c>
-      <c r="CX2">
+      <c r="FU2">
         <v>4.524226195118227</v>
       </c>
-      <c r="CY2">
+      <c r="FV2">
         <v>4.516146415032845</v>
       </c>
-      <c r="CZ2">
+      <c r="FW2">
         <v>4.516146415032845</v>
       </c>
-      <c r="DA2">
+      <c r="FX2">
         <v>4.516146415032845</v>
       </c>
-      <c r="DB2">
+      <c r="FY2">
+        <v>4.516146415032845</v>
+      </c>
+      <c r="FZ2">
+        <v>4.516146415032693</v>
+      </c>
+      <c r="GA2">
+        <v>4.516146415032693</v>
+      </c>
+      <c r="GB2">
+        <v>4.516146415032693</v>
+      </c>
+      <c r="GC2">
+        <v>4.516146415032693</v>
+      </c>
+      <c r="GD2">
         <v>4.51614641503254</v>
       </c>
-      <c r="DC2">
-        <v>4.51614641503254</v>
-      </c>
-      <c r="DD2">
+      <c r="GE2">
         <v>4.516144520055231</v>
       </c>
-      <c r="DE2">
+      <c r="GF2">
         <v>4.516144520055231</v>
       </c>
-      <c r="DF2">
+      <c r="GG2">
         <v>4.516144520055231</v>
       </c>
-      <c r="DG2">
+      <c r="GH2">
         <v>4.516144520055231</v>
       </c>
-      <c r="DH2">
+      <c r="GI2">
         <v>4.516144520055231</v>
       </c>
-      <c r="DI2">
-        <v>4.516144520055231</v>
-      </c>
-      <c r="DJ2">
-        <v>4.516144520055231</v>
-      </c>
-      <c r="DK2">
-        <v>4.516144520055231</v>
-      </c>
-      <c r="DL2">
-        <v>4.516144520055231</v>
-      </c>
-      <c r="DM2">
-        <v>4.516144520055231</v>
-      </c>
-      <c r="DN2">
+      <c r="GJ2">
         <v>4.482102099013621</v>
       </c>
-      <c r="DO2">
+      <c r="GK2">
         <v>4.482102099013621</v>
       </c>
-      <c r="DP2">
+      <c r="GL2">
         <v>4.482102099013621</v>
       </c>
-      <c r="DQ2">
+      <c r="GM2">
         <v>4.482102099013621</v>
       </c>
-      <c r="DR2">
+      <c r="GN2">
         <v>4.482102099013621</v>
       </c>
-      <c r="DS2">
+      <c r="GO2">
+        <v>4.482102099013469</v>
+      </c>
+      <c r="GP2">
+        <v>4.482102099013469</v>
+      </c>
+      <c r="GQ2">
         <v>4.482100137025595</v>
       </c>
-      <c r="DT2">
+      <c r="GR2">
         <v>4.482100137025595</v>
       </c>
-      <c r="DU2">
+      <c r="GS2">
         <v>4.482100137025595</v>
       </c>
-      <c r="DV2">
+      <c r="GT2">
         <v>4.482100137025595</v>
       </c>
-      <c r="DW2">
+      <c r="GU2">
         <v>4.482100137025595</v>
       </c>
-      <c r="DX2">
+      <c r="GV2">
         <v>4.482100137025595</v>
       </c>
-      <c r="DY2">
+      <c r="GW2">
+        <v>4.482100137025595</v>
+      </c>
+      <c r="GX2">
         <v>4.482100137025443</v>
       </c>
-      <c r="DZ2">
+      <c r="GY2">
         <v>4.482100137025443</v>
       </c>
-      <c r="EA2">
+      <c r="GZ2">
         <v>4.482100137025443</v>
       </c>
-      <c r="EB2">
+      <c r="HA2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EC2">
+      <c r="HB2">
         <v>4.10818043817293</v>
       </c>
-      <c r="ED2">
+      <c r="HC2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EE2">
+      <c r="HD2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EF2">
+      <c r="HE2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EG2">
+      <c r="HF2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EH2">
+      <c r="HG2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EI2">
+      <c r="HH2">
         <v>4.10818043817293</v>
       </c>
-      <c r="EJ2">
+      <c r="HI2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EK2">
+      <c r="HJ2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EL2">
+      <c r="HK2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EM2">
+      <c r="HL2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EN2">
+      <c r="HM2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EO2">
+      <c r="HN2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EP2">
+      <c r="HO2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EQ2">
+      <c r="HP2">
         <v>4.108180438171984</v>
       </c>
-      <c r="ER2">
+      <c r="HQ2">
         <v>4.108180438171984</v>
       </c>
-      <c r="ES2">
+      <c r="HR2">
         <v>4.108180438171984</v>
       </c>
-      <c r="ET2">
+      <c r="HS2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EU2">
+      <c r="HT2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EV2">
+      <c r="HU2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EW2">
+      <c r="HV2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EX2">
+      <c r="HW2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EY2">
+      <c r="HX2">
         <v>4.108180438171984</v>
       </c>
-      <c r="EZ2">
+      <c r="HY2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FA2">
+      <c r="HZ2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FB2">
+      <c r="IA2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FC2">
+      <c r="IB2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FD2">
+      <c r="IC2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FE2">
+      <c r="ID2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FF2">
+      <c r="IE2">
         <v>4.108180438171984</v>
       </c>
-      <c r="FG2">
+      <c r="IF2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IG2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IH2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="II2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IJ2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IK2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IL2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IM2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IN2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IO2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IP2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IQ2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IR2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IS2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IT2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IU2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IV2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IW2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IX2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IY2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="IZ2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="JA2">
+        <v>4.108180438171984</v>
+      </c>
+      <c r="JB2">
         <v>4.108180438171038</v>
       </c>
-      <c r="FH2">
+      <c r="JC2">
         <v>4.108180438171038</v>
       </c>
-      <c r="FI2">
+      <c r="JD2">
         <v>4.108180438171038</v>
       </c>
-      <c r="FJ2">
+      <c r="JE2">
         <v>4.108180438171038</v>
       </c>
-      <c r="FK2">
+      <c r="JF2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JG2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JH2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JI2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JJ2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JK2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JL2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JM2">
+        <v>4.108180438171038</v>
+      </c>
+      <c r="JN2">
+        <v>4.108180438170092</v>
+      </c>
+      <c r="JO2">
+        <v>4.108180438170092</v>
+      </c>
+      <c r="JP2">
+        <v>4.104247074436788</v>
+      </c>
+      <c r="JQ2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FL2">
+      <c r="JR2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FM2">
+      <c r="JS2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FN2">
+      <c r="JT2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FO2">
+      <c r="JU2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FP2">
+      <c r="JV2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FQ2">
+      <c r="JW2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FR2">
+      <c r="JX2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FS2">
+      <c r="JY2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FT2">
+      <c r="JZ2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FU2">
+      <c r="KA2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FV2">
+      <c r="KB2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FW2">
+      <c r="KC2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FX2">
+      <c r="KD2">
         <v>4.104247074435842</v>
       </c>
-      <c r="FY2">
+      <c r="KE2">
         <v>4.104247074434896</v>
       </c>
-      <c r="FZ2">
-        <v>4.104247074433951</v>
-      </c>
-      <c r="GA2">
-        <v>4.104247074433951</v>
-      </c>
-      <c r="GB2">
-        <v>4.104247074433951</v>
-      </c>
-      <c r="GC2">
+      <c r="KF2">
+        <v>4.104247074434896</v>
+      </c>
+      <c r="KG2">
+        <v>4.104247074434896</v>
+      </c>
+      <c r="KH2">
         <v>3.907866429488499</v>
       </c>
-      <c r="GD2">
+      <c r="KI2">
         <v>3.907866429488499</v>
       </c>
-      <c r="GE2">
+      <c r="KJ2">
         <v>3.907866429488499</v>
       </c>
-      <c r="GF2">
+      <c r="KK2">
         <v>3.907866429488499</v>
       </c>
-      <c r="GG2">
+      <c r="KL2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KM2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KN2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KO2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KP2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KQ2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KR2">
+        <v>3.907866429488042</v>
+      </c>
+      <c r="KS2">
+        <v>3.907866429487585</v>
+      </c>
+      <c r="KT2">
+        <v>3.907866429487585</v>
+      </c>
+      <c r="KU2">
+        <v>3.907866429487585</v>
+      </c>
+      <c r="KV2">
         <v>3.907866429487128</v>
       </c>
-      <c r="GH2">
+      <c r="KW2">
         <v>3.907866429487128</v>
       </c>
-      <c r="GI2">
+      <c r="KX2">
         <v>3.907866429487128</v>
       </c>
-      <c r="GJ2">
+      <c r="KY2">
         <v>3.907866429487128</v>
       </c>
-      <c r="GK2">
+      <c r="KZ2">
         <v>3.904178273638084</v>
       </c>
-      <c r="GL2">
-        <v>3.904178273637174</v>
-      </c>
-      <c r="GM2">
+      <c r="LA2">
+        <v>3.904178273638084</v>
+      </c>
+      <c r="LB2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GN2">
+      <c r="LC2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GO2">
+      <c r="LD2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GP2">
+      <c r="LE2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GQ2">
+      <c r="LF2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GR2">
+      <c r="LG2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GS2">
+      <c r="LH2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GT2">
+      <c r="LI2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GU2">
+      <c r="LJ2">
         <v>2.535796439376919</v>
       </c>
-      <c r="GV2">
-        <v>2.535796439376919</v>
-      </c>
-      <c r="GW2">
+      <c r="LK2">
         <v>2.535748417970078</v>
       </c>
-      <c r="GX2">
+      <c r="LL2">
         <v>2.535748417970078</v>
       </c>
-      <c r="GY2">
+      <c r="LM2">
         <v>2.535748417970078</v>
       </c>
-      <c r="GZ2">
+      <c r="LN2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HA2">
+      <c r="LO2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HB2">
+      <c r="LP2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HC2">
+      <c r="LQ2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HD2">
+      <c r="LR2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HE2">
+      <c r="LS2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HF2">
+      <c r="LT2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HG2">
+      <c r="LU2">
         <v>2.5282469173021</v>
       </c>
-      <c r="HH2">
-        <v>2.52819889594343</v>
-      </c>
-      <c r="HI2">
-        <v>2.52819889594343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:217">
+      <c r="LV2">
+        <v>2.5282469173021</v>
+      </c>
+      <c r="LW2">
+        <v>2.52819889594358</v>
+      </c>
+      <c r="LX2">
+        <v>2.52819889594358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:336">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -37600,235 +38662,235 @@
         <v>1.310000000000001</v>
       </c>
       <c r="H3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="J3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="K3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="M3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="N3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="O3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="R3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="S3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="T3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="U3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="V3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="W3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="X3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="AC3">
+        <v>1.310000000000001</v>
+      </c>
+      <c r="AD3">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.6500000000000004</v>
+      </c>
+      <c r="AF3">
+        <v>0.6500000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>0.6500000000000004</v>
+      </c>
+      <c r="AH3">
+        <v>0.6500000000000004</v>
+      </c>
+      <c r="AI3">
         <v>2.030000000000001</v>
       </c>
-      <c r="I3">
+      <c r="AJ3">
         <v>2.030000000000001</v>
       </c>
-      <c r="J3">
+      <c r="AK3">
         <v>2.030000000000001</v>
       </c>
-      <c r="K3">
+      <c r="AL3">
         <v>2.030000000000001</v>
       </c>
-      <c r="L3">
+      <c r="AM3">
         <v>2.030000000000001</v>
       </c>
-      <c r="M3">
+      <c r="AN3">
         <v>2.030000000000001</v>
       </c>
-      <c r="N3">
+      <c r="AO3">
         <v>2.030000000000001</v>
       </c>
-      <c r="O3">
+      <c r="AP3">
         <v>2.030000000000001</v>
       </c>
-      <c r="P3">
+      <c r="AQ3">
         <v>2.030000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="AR3">
         <v>2.030000000000001</v>
       </c>
-      <c r="R3">
+      <c r="AS3">
         <v>2.030000000000001</v>
       </c>
-      <c r="S3">
+      <c r="AT3">
         <v>2.030000000000001</v>
       </c>
-      <c r="T3">
+      <c r="AU3">
         <v>2.030000000000001</v>
       </c>
-      <c r="U3">
+      <c r="AV3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="AX3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="BA3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="BB3">
+        <v>2.030000000000001</v>
+      </c>
+      <c r="BC3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BD3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BE3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="BG3">
+        <v>0.6600000000000004</v>
+      </c>
+      <c r="BH3">
         <v>0.6800000000000004</v>
       </c>
-      <c r="V3">
+      <c r="BI3">
         <v>0.6800000000000004</v>
       </c>
-      <c r="W3">
-        <v>0.6800000000000004</v>
-      </c>
-      <c r="X3">
-        <v>0.6800000000000004</v>
-      </c>
-      <c r="Y3">
+      <c r="BJ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="Z3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AA3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AB3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AC3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AD3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AE3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AF3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AG3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AH3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AI3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AJ3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AK3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AL3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AM3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AN3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AO3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AP3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AQ3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AR3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AS3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AT3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AU3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AV3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AW3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AX3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AY3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="AZ3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BA3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BB3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BC3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BD3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BE3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BF3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BG3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BH3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BI3">
-        <v>2.719999999999986</v>
-      </c>
-      <c r="BJ3">
-        <v>2.719999999999986</v>
-      </c>
       <c r="BK3">
-        <v>2.719999999999986</v>
+        <v>0.6700000000000004</v>
       </c>
       <c r="BL3">
-        <v>2.719999999999986</v>
+        <v>0.6700000000000004</v>
       </c>
       <c r="BM3">
-        <v>2.719999999999986</v>
+        <v>0.6700000000000004</v>
       </c>
       <c r="BN3">
-        <v>2.719999999999986</v>
+        <v>0.6700000000000004</v>
       </c>
       <c r="BO3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BP3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BQ3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BR3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BS3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BT3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BU3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BV3">
-        <v>2.719999999999986</v>
+        <v>0.6600000000000004</v>
       </c>
       <c r="BW3">
-        <v>2.719999999999986</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="BX3">
-        <v>2.719999999999986</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="BY3">
-        <v>2.719999999999986</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="BZ3">
-        <v>2.719999999999986</v>
+        <v>0.6500000000000004</v>
       </c>
       <c r="CA3">
-        <v>2.719999999999986</v>
+        <v>1.360000000000001</v>
       </c>
       <c r="CB3">
-        <v>2.719999999999986</v>
+        <v>1.360000000000001</v>
       </c>
       <c r="CC3">
-        <v>2.719999999999986</v>
+        <v>1.360000000000001</v>
       </c>
       <c r="CD3">
-        <v>2.719999999999986</v>
+        <v>1.360000000000001</v>
       </c>
       <c r="CE3">
-        <v>2.719999999999986</v>
+        <v>1.360000000000001</v>
       </c>
       <c r="CF3">
-        <v>2.719999999999986</v>
+        <v>1.360000000000001</v>
       </c>
       <c r="CG3">
         <v>1.360000000000001</v>
@@ -37843,1044 +38905,1758 @@
         <v>1.360000000000001</v>
       </c>
       <c r="CK3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CL3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CM3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CN3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CO3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CP3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CQ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CR3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CS3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CT3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CU3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CV3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CW3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CX3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CY3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="CZ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DA3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DB3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DC3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DD3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DE3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DF3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DG3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DH3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DI3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DJ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DK3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DL3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DM3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DN3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DO3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DP3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DQ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DR3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DS3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DT3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DU3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DV3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DW3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DX3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DY3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="DZ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EA3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EB3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EC3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="ED3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EE3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EF3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EG3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EH3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EI3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EJ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EK3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EL3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EM3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EN3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EO3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EP3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EQ3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="ER3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="ES3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="ET3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EU3">
+        <v>2.719999999999986</v>
+      </c>
+      <c r="EV3">
         <v>1.360000000000001</v>
       </c>
-      <c r="CL3">
+      <c r="EW3">
         <v>1.360000000000001</v>
       </c>
-      <c r="CM3">
+      <c r="EX3">
         <v>1.360000000000001</v>
       </c>
-      <c r="CN3">
+      <c r="EY3">
         <v>1.360000000000001</v>
       </c>
-      <c r="CO3">
+      <c r="EZ3">
         <v>1.360000000000001</v>
       </c>
-      <c r="CP3">
+      <c r="FA3">
         <v>1.360000000000001</v>
       </c>
-      <c r="CQ3">
+      <c r="FB3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FC3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FD3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FE3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FF3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FG3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FH3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FI3">
+        <v>1.360000000000001</v>
+      </c>
+      <c r="FJ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CR3">
+      <c r="FK3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CS3">
+      <c r="FL3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CT3">
+      <c r="FM3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CU3">
+      <c r="FN3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CV3">
+      <c r="FO3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CW3">
+      <c r="FP3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CX3">
+      <c r="FQ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CY3">
+      <c r="FR3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="CZ3">
+      <c r="FS3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DA3">
+      <c r="FT3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DB3">
+      <c r="FU3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DC3">
+      <c r="FV3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DD3">
+      <c r="FW3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DE3">
+      <c r="FX3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DF3">
+      <c r="FY3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DG3">
+      <c r="FZ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DH3">
+      <c r="GA3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DI3">
+      <c r="GB3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DJ3">
+      <c r="GC3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DK3">
+      <c r="GD3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DL3">
+      <c r="GE3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DM3">
+      <c r="GF3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DN3">
+      <c r="GG3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DO3">
+      <c r="GH3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DP3">
+      <c r="GI3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DQ3">
+      <c r="GJ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DR3">
+      <c r="GK3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DS3">
+      <c r="GL3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DT3">
+      <c r="GM3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DU3">
+      <c r="GN3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DV3">
+      <c r="GO3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DW3">
+      <c r="GP3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DX3">
+      <c r="GQ3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DY3">
+      <c r="GR3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="DZ3">
+      <c r="GS3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="EA3">
+      <c r="GT3">
         <v>0.6700000000000004</v>
       </c>
-      <c r="EB3">
+      <c r="GU3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="GV3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="GW3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="GX3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="GY3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="GZ3">
+        <v>0.6700000000000004</v>
+      </c>
+      <c r="HA3">
         <v>2.08</v>
       </c>
-      <c r="EC3">
+      <c r="HB3">
         <v>2.08</v>
       </c>
-      <c r="ED3">
+      <c r="HC3">
         <v>2.08</v>
       </c>
-      <c r="EE3">
+      <c r="HD3">
         <v>2.08</v>
       </c>
-      <c r="EF3">
+      <c r="HE3">
         <v>2.08</v>
       </c>
-      <c r="EG3">
+      <c r="HF3">
         <v>2.08</v>
       </c>
-      <c r="EH3">
+      <c r="HG3">
         <v>2.08</v>
       </c>
-      <c r="EI3">
+      <c r="HH3">
         <v>2.08</v>
       </c>
-      <c r="EJ3">
+      <c r="HI3">
         <v>2.08</v>
       </c>
-      <c r="EK3">
+      <c r="HJ3">
         <v>2.08</v>
       </c>
-      <c r="EL3">
+      <c r="HK3">
         <v>2.08</v>
       </c>
-      <c r="EM3">
+      <c r="HL3">
         <v>2.08</v>
       </c>
-      <c r="EN3">
+      <c r="HM3">
         <v>2.08</v>
       </c>
-      <c r="EO3">
+      <c r="HN3">
         <v>2.08</v>
       </c>
-      <c r="EP3">
+      <c r="HO3">
         <v>2.08</v>
       </c>
-      <c r="EQ3">
+      <c r="HP3">
         <v>2.08</v>
       </c>
-      <c r="ER3">
+      <c r="HQ3">
         <v>2.08</v>
       </c>
-      <c r="ES3">
+      <c r="HR3">
         <v>2.08</v>
       </c>
-      <c r="ET3">
+      <c r="HS3">
         <v>2.08</v>
       </c>
-      <c r="EU3">
+      <c r="HT3">
         <v>2.08</v>
       </c>
-      <c r="EV3">
+      <c r="HU3">
         <v>2.08</v>
       </c>
-      <c r="EW3">
+      <c r="HV3">
         <v>2.08</v>
       </c>
-      <c r="EX3">
+      <c r="HW3">
         <v>2.08</v>
       </c>
-      <c r="EY3">
+      <c r="HX3">
         <v>2.08</v>
       </c>
-      <c r="EZ3">
+      <c r="HY3">
         <v>2.08</v>
       </c>
-      <c r="FA3">
+      <c r="HZ3">
         <v>2.08</v>
       </c>
-      <c r="FB3">
+      <c r="IA3">
         <v>2.08</v>
       </c>
-      <c r="FC3">
+      <c r="IB3">
         <v>2.08</v>
       </c>
-      <c r="FD3">
+      <c r="IC3">
         <v>2.08</v>
       </c>
-      <c r="FE3">
+      <c r="ID3">
         <v>2.08</v>
       </c>
-      <c r="FF3">
+      <c r="IE3">
         <v>2.08</v>
       </c>
-      <c r="FG3">
+      <c r="IF3">
         <v>2.08</v>
       </c>
-      <c r="FH3">
+      <c r="IG3">
         <v>2.08</v>
       </c>
-      <c r="FI3">
+      <c r="IH3">
         <v>2.08</v>
       </c>
-      <c r="FJ3">
+      <c r="II3">
         <v>2.08</v>
       </c>
-      <c r="FK3">
+      <c r="IJ3">
         <v>2.08</v>
       </c>
-      <c r="FL3">
+      <c r="IK3">
         <v>2.08</v>
       </c>
-      <c r="FM3">
+      <c r="IL3">
         <v>2.08</v>
       </c>
-      <c r="FN3">
+      <c r="IM3">
         <v>2.08</v>
       </c>
-      <c r="FO3">
+      <c r="IN3">
         <v>2.08</v>
       </c>
-      <c r="FP3">
+      <c r="IO3">
         <v>2.08</v>
       </c>
-      <c r="FQ3">
+      <c r="IP3">
         <v>2.08</v>
       </c>
-      <c r="FR3">
+      <c r="IQ3">
         <v>2.08</v>
       </c>
-      <c r="FS3">
+      <c r="IR3">
         <v>2.08</v>
       </c>
-      <c r="FT3">
+      <c r="IS3">
         <v>2.08</v>
       </c>
-      <c r="FU3">
+      <c r="IT3">
         <v>2.08</v>
       </c>
-      <c r="FV3">
+      <c r="IU3">
         <v>2.08</v>
       </c>
-      <c r="FW3">
+      <c r="IV3">
         <v>2.08</v>
       </c>
-      <c r="FX3">
+      <c r="IW3">
         <v>2.08</v>
       </c>
-      <c r="FY3">
+      <c r="IX3">
         <v>2.08</v>
       </c>
-      <c r="FZ3">
+      <c r="IY3">
         <v>2.08</v>
       </c>
-      <c r="GA3">
+      <c r="IZ3">
         <v>2.08</v>
       </c>
-      <c r="GB3">
+      <c r="JA3">
         <v>2.08</v>
       </c>
-      <c r="GC3">
+      <c r="JB3">
+        <v>2.08</v>
+      </c>
+      <c r="JC3">
+        <v>2.08</v>
+      </c>
+      <c r="JD3">
+        <v>2.08</v>
+      </c>
+      <c r="JE3">
+        <v>2.08</v>
+      </c>
+      <c r="JF3">
+        <v>2.08</v>
+      </c>
+      <c r="JG3">
+        <v>2.08</v>
+      </c>
+      <c r="JH3">
+        <v>2.08</v>
+      </c>
+      <c r="JI3">
+        <v>2.08</v>
+      </c>
+      <c r="JJ3">
+        <v>2.08</v>
+      </c>
+      <c r="JK3">
+        <v>2.08</v>
+      </c>
+      <c r="JL3">
+        <v>2.08</v>
+      </c>
+      <c r="JM3">
+        <v>2.08</v>
+      </c>
+      <c r="JN3">
+        <v>2.08</v>
+      </c>
+      <c r="JO3">
+        <v>2.08</v>
+      </c>
+      <c r="JP3">
+        <v>2.08</v>
+      </c>
+      <c r="JQ3">
+        <v>2.08</v>
+      </c>
+      <c r="JR3">
+        <v>2.08</v>
+      </c>
+      <c r="JS3">
+        <v>2.08</v>
+      </c>
+      <c r="JT3">
+        <v>2.08</v>
+      </c>
+      <c r="JU3">
+        <v>2.08</v>
+      </c>
+      <c r="JV3">
+        <v>2.08</v>
+      </c>
+      <c r="JW3">
+        <v>2.08</v>
+      </c>
+      <c r="JX3">
+        <v>2.08</v>
+      </c>
+      <c r="JY3">
+        <v>2.08</v>
+      </c>
+      <c r="JZ3">
+        <v>2.08</v>
+      </c>
+      <c r="KA3">
+        <v>2.08</v>
+      </c>
+      <c r="KB3">
+        <v>2.08</v>
+      </c>
+      <c r="KC3">
+        <v>2.08</v>
+      </c>
+      <c r="KD3">
+        <v>2.08</v>
+      </c>
+      <c r="KE3">
+        <v>2.08</v>
+      </c>
+      <c r="KF3">
+        <v>2.08</v>
+      </c>
+      <c r="KG3">
+        <v>2.08</v>
+      </c>
+      <c r="KH3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GD3">
+      <c r="KI3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GE3">
+      <c r="KJ3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GF3">
+      <c r="KK3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GG3">
+      <c r="KL3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GH3">
+      <c r="KM3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GI3">
+      <c r="KN3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GJ3">
+      <c r="KO3">
         <v>2.010000000000001</v>
       </c>
-      <c r="GK3">
+      <c r="KP3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KQ3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KR3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KS3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KT3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KU3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KV3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KW3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KX3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KY3">
+        <v>2.010000000000001</v>
+      </c>
+      <c r="KZ3">
         <v>2.000000000000001</v>
       </c>
-      <c r="GL3">
+      <c r="LA3">
         <v>2.000000000000001</v>
       </c>
-      <c r="GM3">
+      <c r="LB3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GN3">
+      <c r="LC3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GO3">
+      <c r="LD3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GP3">
+      <c r="LE3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GQ3">
+      <c r="LF3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GR3">
+      <c r="LG3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GS3">
+      <c r="LH3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GT3">
+      <c r="LI3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GU3">
+      <c r="LJ3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GV3">
+      <c r="LK3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GW3">
+      <c r="LL3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GX3">
+      <c r="LM3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GY3">
+      <c r="LN3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="GZ3">
+      <c r="LO3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HA3">
+      <c r="LP3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HB3">
+      <c r="LQ3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HC3">
+      <c r="LR3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HD3">
+      <c r="LS3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HE3">
+      <c r="LT3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HF3">
+      <c r="LU3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HG3">
+      <c r="LV3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HH3">
+      <c r="LW3">
         <v>0.6600000000000004</v>
       </c>
-      <c r="HI3">
+      <c r="LX3">
         <v>0.6600000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:217">
+    <row r="4" spans="1:336">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
+        <v>6.723142336497403</v>
+      </c>
+      <c r="C4">
+        <v>6.723142336497403</v>
+      </c>
+      <c r="D4">
+        <v>6.723142336497403</v>
+      </c>
+      <c r="E4">
+        <v>6.723142336497403</v>
+      </c>
+      <c r="F4">
+        <v>6.723142336497403</v>
+      </c>
+      <c r="G4">
+        <v>6.723142336497403</v>
+      </c>
+      <c r="H4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="I4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="J4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="K4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="L4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="M4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="N4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="O4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="P4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="Q4">
+        <v>6.723142336496949</v>
+      </c>
+      <c r="R4">
+        <v>6.723142336496494</v>
+      </c>
+      <c r="S4">
+        <v>6.723142336496494</v>
+      </c>
+      <c r="T4">
+        <v>6.723142336496494</v>
+      </c>
+      <c r="U4">
+        <v>6.723142336496494</v>
+      </c>
+      <c r="V4">
+        <v>6.723142336496494</v>
+      </c>
+      <c r="W4">
+        <v>6.723142336496494</v>
+      </c>
+      <c r="X4">
         <v>6.718412510414964</v>
       </c>
-      <c r="C4">
+      <c r="Y4">
         <v>6.718412510414964</v>
       </c>
-      <c r="D4">
+      <c r="Z4">
         <v>6.718412510414964</v>
       </c>
-      <c r="E4">
-        <v>6.718412510414964</v>
-      </c>
-      <c r="F4">
+      <c r="AA4">
         <v>6.7089736737571</v>
       </c>
-      <c r="G4">
+      <c r="AB4">
         <v>6.7089736737571</v>
       </c>
-      <c r="H4">
-        <v>3.941502508049325</v>
-      </c>
-      <c r="I4">
-        <v>3.941502508049325</v>
-      </c>
-      <c r="J4">
+      <c r="AC4">
+        <v>6.7089736737571</v>
+      </c>
+      <c r="AD4">
+        <v>6.739848714229083</v>
+      </c>
+      <c r="AE4">
+        <v>13.47577448941706</v>
+      </c>
+      <c r="AF4">
+        <v>13.47577448941684</v>
+      </c>
+      <c r="AG4">
+        <v>13.47577448941684</v>
+      </c>
+      <c r="AH4">
+        <v>13.43474983851002</v>
+      </c>
+      <c r="AI4">
+        <v>3.94150250804978</v>
+      </c>
+      <c r="AJ4">
+        <v>3.94150250804978</v>
+      </c>
+      <c r="AK4">
+        <v>3.94150250804978</v>
+      </c>
+      <c r="AL4">
+        <v>3.94150250804978</v>
+      </c>
+      <c r="AM4">
+        <v>3.94150250804978</v>
+      </c>
+      <c r="AN4">
+        <v>3.941502508049098</v>
+      </c>
+      <c r="AO4">
+        <v>3.941502508049098</v>
+      </c>
+      <c r="AP4">
+        <v>3.941502508049098</v>
+      </c>
+      <c r="AQ4">
+        <v>3.941502508049098</v>
+      </c>
+      <c r="AR4">
         <v>3.941502508048643</v>
       </c>
-      <c r="K4">
+      <c r="AS4">
         <v>3.941502508048643</v>
       </c>
-      <c r="L4">
+      <c r="AT4">
         <v>3.941502508048643</v>
       </c>
-      <c r="M4">
+      <c r="AU4">
         <v>3.941502508048643</v>
       </c>
-      <c r="N4">
+      <c r="AV4">
         <v>3.941502508048416</v>
       </c>
-      <c r="O4">
-        <v>3.941502508048416</v>
-      </c>
-      <c r="P4">
-        <v>3.941502508048416</v>
-      </c>
-      <c r="Q4">
-        <v>3.941502508048416</v>
-      </c>
-      <c r="R4">
+      <c r="AW4">
         <v>3.933209944208556</v>
       </c>
-      <c r="S4">
+      <c r="AX4">
+        <v>3.933209944208556</v>
+      </c>
+      <c r="AY4">
+        <v>3.933209944208556</v>
+      </c>
+      <c r="AZ4">
         <v>3.933209944208329</v>
       </c>
-      <c r="T4">
+      <c r="BA4">
         <v>3.933209944208329</v>
       </c>
-      <c r="U4">
+      <c r="BB4">
+        <v>3.933209944208329</v>
+      </c>
+      <c r="BC4">
+        <v>11.48098091406678</v>
+      </c>
+      <c r="BD4">
+        <v>11.48098091406678</v>
+      </c>
+      <c r="BE4">
+        <v>11.48098091406678</v>
+      </c>
+      <c r="BF4">
+        <v>11.48098091406678</v>
+      </c>
+      <c r="BG4">
+        <v>11.49096564296678</v>
+      </c>
+      <c r="BH4">
         <v>8.620160216306203</v>
       </c>
-      <c r="V4">
+      <c r="BI4">
         <v>8.620160216306203</v>
       </c>
-      <c r="W4">
-        <v>8.620160216306203</v>
-      </c>
-      <c r="X4">
-        <v>8.620160216306203</v>
-      </c>
-      <c r="Y4">
+      <c r="BJ4">
         <v>8.689705333281609</v>
       </c>
-      <c r="Z4">
+      <c r="BK4">
+        <v>8.689705333281609</v>
+      </c>
+      <c r="BL4">
+        <v>8.689705333281609</v>
+      </c>
+      <c r="BM4">
+        <v>8.689705333281154</v>
+      </c>
+      <c r="BN4">
+        <v>8.689705333281154</v>
+      </c>
+      <c r="BO4">
+        <v>8.684028652482311</v>
+      </c>
+      <c r="BP4">
+        <v>8.684028652482311</v>
+      </c>
+      <c r="BQ4">
+        <v>8.664901037581103</v>
+      </c>
+      <c r="BR4">
+        <v>8.664901037581103</v>
+      </c>
+      <c r="BS4">
+        <v>8.664901037581103</v>
+      </c>
+      <c r="BT4">
+        <v>8.664901037581103</v>
+      </c>
+      <c r="BU4">
+        <v>8.664901037581103</v>
+      </c>
+      <c r="BV4">
+        <v>8.664901037581103</v>
+      </c>
+      <c r="BW4">
+        <v>8.704531123484458</v>
+      </c>
+      <c r="BX4">
+        <v>8.704531123484458</v>
+      </c>
+      <c r="BY4">
+        <v>8.704531123484458</v>
+      </c>
+      <c r="BZ4">
+        <v>8.704531123484458</v>
+      </c>
+      <c r="CA4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CB4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CC4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CD4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CE4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CF4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CG4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CH4">
+        <v>3.92087756446972</v>
+      </c>
+      <c r="CI4">
+        <v>3.92087756446881</v>
+      </c>
+      <c r="CJ4">
+        <v>3.92087756446881</v>
+      </c>
+      <c r="CK4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AA4">
+      <c r="CL4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AB4">
+      <c r="CM4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AC4">
+      <c r="CN4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AD4">
+      <c r="CO4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AE4">
+      <c r="CP4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AF4">
+      <c r="CQ4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AG4">
+      <c r="CR4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AH4">
+      <c r="CS4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AI4">
+      <c r="CT4">
         <v>1.960438712822906</v>
       </c>
-      <c r="AJ4">
+      <c r="CU4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="CV4">
+        <v>1.960438712822906</v>
+      </c>
+      <c r="CW4">
         <v>1.960438712822452</v>
       </c>
-      <c r="AK4">
+      <c r="CX4">
         <v>1.960438712822452</v>
       </c>
-      <c r="AL4">
+      <c r="CY4">
         <v>1.960438712822452</v>
       </c>
-      <c r="AM4">
+      <c r="CZ4">
         <v>1.960438712822452</v>
       </c>
-      <c r="AN4">
+      <c r="DA4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AO4">
+      <c r="DB4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AP4">
+      <c r="DC4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AQ4">
+      <c r="DD4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AR4">
+      <c r="DE4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AS4">
+      <c r="DF4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AT4">
+      <c r="DG4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AU4">
+      <c r="DH4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AV4">
+      <c r="DI4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AW4">
+      <c r="DJ4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AX4">
+      <c r="DK4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AY4">
+      <c r="DL4">
         <v>1.960438712821997</v>
       </c>
-      <c r="AZ4">
+      <c r="DM4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BA4">
+      <c r="DN4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BB4">
+      <c r="DO4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BC4">
+      <c r="DP4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BD4">
+      <c r="DQ4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BE4">
+      <c r="DR4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BF4">
+      <c r="DS4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BG4">
+      <c r="DT4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BH4">
+      <c r="DU4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BI4">
+      <c r="DV4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BJ4">
+      <c r="DW4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BK4">
+      <c r="DX4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BL4">
+      <c r="DY4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BM4">
+      <c r="DZ4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BN4">
+      <c r="EA4">
         <v>1.960438712821997</v>
       </c>
-      <c r="BO4">
+      <c r="EB4">
+        <v>1.960438712821997</v>
+      </c>
+      <c r="EC4">
         <v>1.958965761378749</v>
       </c>
-      <c r="BP4">
+      <c r="ED4">
         <v>1.958965761378749</v>
       </c>
-      <c r="BQ4">
+      <c r="EE4">
         <v>1.958965761378749</v>
       </c>
-      <c r="BR4">
-        <v>1.958965761378749</v>
-      </c>
-      <c r="BS4">
+      <c r="EF4">
         <v>1.958965761378295</v>
       </c>
-      <c r="BT4">
+      <c r="EG4">
         <v>1.958965761378295</v>
       </c>
-      <c r="BU4">
+      <c r="EH4">
         <v>1.958965761378295</v>
       </c>
-      <c r="BV4">
+      <c r="EI4">
         <v>1.958965761378295</v>
       </c>
-      <c r="BW4">
+      <c r="EJ4">
         <v>1.958965761378295</v>
       </c>
-      <c r="BX4">
+      <c r="EK4">
+        <v>1.958965761378295</v>
+      </c>
+      <c r="EL4">
         <v>1.95896576137784</v>
       </c>
-      <c r="BY4">
+      <c r="EM4">
         <v>1.95896576137784</v>
       </c>
-      <c r="BZ4">
+      <c r="EN4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CA4">
+      <c r="EO4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CB4">
+      <c r="EP4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CC4">
+      <c r="EQ4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CD4">
+      <c r="ER4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CE4">
+      <c r="ES4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CF4">
+      <c r="ET4">
         <v>1.95896576137784</v>
       </c>
-      <c r="CG4">
+      <c r="EU4">
+        <v>1.95896576137784</v>
+      </c>
+      <c r="EV4">
         <v>3.917879418341272</v>
       </c>
-      <c r="CH4">
+      <c r="EW4">
         <v>3.917879418341272</v>
       </c>
-      <c r="CI4">
+      <c r="EX4">
         <v>3.917879418341272</v>
       </c>
-      <c r="CJ4">
+      <c r="EY4">
         <v>3.917879418341272</v>
       </c>
-      <c r="CK4">
+      <c r="EZ4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="FA4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="FB4">
+        <v>3.917879418341272</v>
+      </c>
+      <c r="FC4">
         <v>3.917879418340817</v>
       </c>
-      <c r="CL4">
+      <c r="FD4">
         <v>3.917879418340817</v>
       </c>
-      <c r="CM4">
+      <c r="FE4">
         <v>3.917879418340817</v>
       </c>
-      <c r="CN4">
+      <c r="FF4">
         <v>3.917879418340817</v>
       </c>
-      <c r="CO4">
+      <c r="FG4">
         <v>3.917879418340817</v>
       </c>
-      <c r="CP4">
+      <c r="FH4">
         <v>3.917879418340817</v>
       </c>
-      <c r="CQ4">
+      <c r="FI4">
+        <v>3.908454207320574</v>
+      </c>
+      <c r="FJ4">
         <v>6.768584142669852</v>
       </c>
-      <c r="CR4">
+      <c r="FK4">
         <v>6.768584142669852</v>
       </c>
-      <c r="CS4">
+      <c r="FL4">
         <v>6.768584142669852</v>
       </c>
-      <c r="CT4">
-        <v>6.768584142669852</v>
-      </c>
-      <c r="CU4">
+      <c r="FM4">
+        <v>6.75257641062467</v>
+      </c>
+      <c r="FN4">
+        <v>6.75257641062467</v>
+      </c>
+      <c r="FO4">
+        <v>6.752576410624442</v>
+      </c>
+      <c r="FP4">
+        <v>6.752576410624442</v>
+      </c>
+      <c r="FQ4">
+        <v>6.752576410624442</v>
+      </c>
+      <c r="FR4">
         <v>6.752576410624215</v>
       </c>
-      <c r="CV4">
+      <c r="FS4">
         <v>6.752576410624215</v>
       </c>
-      <c r="CW4">
+      <c r="FT4">
         <v>6.752576410624215</v>
       </c>
-      <c r="CX4">
+      <c r="FU4">
         <v>6.752576410624215</v>
       </c>
-      <c r="CY4">
+      <c r="FV4">
         <v>6.740517037362451</v>
       </c>
-      <c r="CZ4">
+      <c r="FW4">
         <v>6.740517037362451</v>
       </c>
-      <c r="DA4">
+      <c r="FX4">
         <v>6.740517037362451</v>
       </c>
-      <c r="DB4">
+      <c r="FY4">
+        <v>6.740517037362451</v>
+      </c>
+      <c r="FZ4">
+        <v>6.740517037362224</v>
+      </c>
+      <c r="GA4">
+        <v>6.740517037362224</v>
+      </c>
+      <c r="GB4">
+        <v>6.740517037362224</v>
+      </c>
+      <c r="GC4">
+        <v>6.740517037362224</v>
+      </c>
+      <c r="GD4">
         <v>6.740517037361997</v>
       </c>
-      <c r="DC4">
-        <v>6.740517037361997</v>
-      </c>
-      <c r="DD4">
+      <c r="GE4">
         <v>6.740514209037656</v>
       </c>
-      <c r="DE4">
+      <c r="GF4">
         <v>6.740514209037656</v>
       </c>
-      <c r="DF4">
+      <c r="GG4">
         <v>6.740514209037656</v>
       </c>
-      <c r="DG4">
+      <c r="GH4">
         <v>6.740514209037656</v>
       </c>
-      <c r="DH4">
+      <c r="GI4">
         <v>6.740514209037656</v>
       </c>
-      <c r="DI4">
-        <v>6.740514209037656</v>
-      </c>
-      <c r="DJ4">
-        <v>6.740514209037656</v>
-      </c>
-      <c r="DK4">
-        <v>6.740514209037656</v>
-      </c>
-      <c r="DL4">
-        <v>6.740514209037656</v>
-      </c>
-      <c r="DM4">
-        <v>6.740514209037656</v>
-      </c>
-      <c r="DN4">
+      <c r="GJ4">
         <v>6.68970462539346</v>
       </c>
-      <c r="DO4">
+      <c r="GK4">
         <v>6.68970462539346</v>
       </c>
-      <c r="DP4">
+      <c r="GL4">
         <v>6.68970462539346</v>
       </c>
-      <c r="DQ4">
+      <c r="GM4">
         <v>6.68970462539346</v>
       </c>
-      <c r="DR4">
+      <c r="GN4">
         <v>6.68970462539346</v>
       </c>
-      <c r="DS4">
+      <c r="GO4">
+        <v>6.689704625393233</v>
+      </c>
+      <c r="GP4">
+        <v>6.689704625393233</v>
+      </c>
+      <c r="GQ4">
         <v>6.689701697053124</v>
       </c>
-      <c r="DT4">
+      <c r="GR4">
         <v>6.689701697053124</v>
       </c>
-      <c r="DU4">
+      <c r="GS4">
         <v>6.689701697053124</v>
       </c>
-      <c r="DV4">
+      <c r="GT4">
         <v>6.689701697053124</v>
       </c>
-      <c r="DW4">
+      <c r="GU4">
         <v>6.689701697053124</v>
       </c>
-      <c r="DX4">
+      <c r="GV4">
         <v>6.689701697053124</v>
       </c>
-      <c r="DY4">
+      <c r="GW4">
+        <v>6.689701697053124</v>
+      </c>
+      <c r="GX4">
         <v>6.689701697052897</v>
       </c>
-      <c r="DZ4">
+      <c r="GY4">
         <v>6.689701697052897</v>
       </c>
-      <c r="EA4">
+      <c r="GZ4">
         <v>6.689701697052897</v>
       </c>
-      <c r="EB4">
+      <c r="HA4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EC4">
+      <c r="HB4">
         <v>1.975086749121601</v>
       </c>
-      <c r="ED4">
+      <c r="HC4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EE4">
+      <c r="HD4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EF4">
+      <c r="HE4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EG4">
+      <c r="HF4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EH4">
+      <c r="HG4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EI4">
+      <c r="HH4">
         <v>1.975086749121601</v>
       </c>
-      <c r="EJ4">
+      <c r="HI4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EK4">
+      <c r="HJ4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EL4">
+      <c r="HK4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EM4">
+      <c r="HL4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EN4">
+      <c r="HM4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EO4">
+      <c r="HN4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EP4">
+      <c r="HO4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EQ4">
+      <c r="HP4">
         <v>1.975086749121147</v>
       </c>
-      <c r="ER4">
+      <c r="HQ4">
         <v>1.975086749121147</v>
       </c>
-      <c r="ES4">
+      <c r="HR4">
         <v>1.975086749121147</v>
       </c>
-      <c r="ET4">
+      <c r="HS4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EU4">
+      <c r="HT4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EV4">
+      <c r="HU4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EW4">
+      <c r="HV4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EX4">
+      <c r="HW4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EY4">
+      <c r="HX4">
         <v>1.975086749121147</v>
       </c>
-      <c r="EZ4">
+      <c r="HY4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FA4">
+      <c r="HZ4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FB4">
+      <c r="IA4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FC4">
+      <c r="IB4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FD4">
+      <c r="IC4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FE4">
+      <c r="ID4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FF4">
+      <c r="IE4">
         <v>1.975086749121147</v>
       </c>
-      <c r="FG4">
+      <c r="IF4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IG4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IH4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="II4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IJ4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IK4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IL4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IM4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IN4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IO4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IP4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IQ4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IR4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IS4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IT4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IU4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IV4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IW4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IX4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IY4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="IZ4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="JA4">
+        <v>1.975086749121147</v>
+      </c>
+      <c r="JB4">
         <v>1.975086749120692</v>
       </c>
-      <c r="FH4">
+      <c r="JC4">
         <v>1.975086749120692</v>
       </c>
-      <c r="FI4">
+      <c r="JD4">
         <v>1.975086749120692</v>
       </c>
-      <c r="FJ4">
+      <c r="JE4">
         <v>1.975086749120692</v>
       </c>
-      <c r="FK4">
+      <c r="JF4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JG4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JH4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JI4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JJ4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JK4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JL4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JM4">
+        <v>1.975086749120692</v>
+      </c>
+      <c r="JN4">
+        <v>1.975086749120237</v>
+      </c>
+      <c r="JO4">
+        <v>1.975086749120237</v>
+      </c>
+      <c r="JP4">
+        <v>1.973195708863841</v>
+      </c>
+      <c r="JQ4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FL4">
+      <c r="JR4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FM4">
+      <c r="JS4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FN4">
+      <c r="JT4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FO4">
+      <c r="JU4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FP4">
+      <c r="JV4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FQ4">
+      <c r="JW4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FR4">
+      <c r="JX4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FS4">
+      <c r="JY4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FT4">
+      <c r="JZ4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FU4">
+      <c r="KA4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FV4">
+      <c r="KB4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FW4">
+      <c r="KC4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FX4">
+      <c r="KD4">
         <v>1.973195708863386</v>
       </c>
-      <c r="FY4">
+      <c r="KE4">
         <v>1.973195708862931</v>
       </c>
-      <c r="FZ4">
-        <v>1.973195708862477</v>
-      </c>
-      <c r="GA4">
-        <v>1.973195708862477</v>
-      </c>
-      <c r="GB4">
-        <v>1.973195708862477</v>
-      </c>
-      <c r="GC4">
+      <c r="KF4">
+        <v>1.973195708862931</v>
+      </c>
+      <c r="KG4">
+        <v>1.973195708862931</v>
+      </c>
+      <c r="KH4">
         <v>1.944212153974377</v>
       </c>
-      <c r="GD4">
+      <c r="KI4">
         <v>1.944212153974377</v>
       </c>
-      <c r="GE4">
+      <c r="KJ4">
         <v>1.944212153974377</v>
       </c>
-      <c r="GF4">
+      <c r="KK4">
         <v>1.944212153974377</v>
       </c>
-      <c r="GG4">
+      <c r="KL4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KM4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KN4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KO4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KP4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KQ4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KR4">
+        <v>1.944212153974149</v>
+      </c>
+      <c r="KS4">
+        <v>1.944212153973922</v>
+      </c>
+      <c r="KT4">
+        <v>1.944212153973922</v>
+      </c>
+      <c r="KU4">
+        <v>1.944212153973922</v>
+      </c>
+      <c r="KV4">
         <v>1.944212153973695</v>
       </c>
-      <c r="GH4">
+      <c r="KW4">
         <v>1.944212153973695</v>
       </c>
-      <c r="GI4">
+      <c r="KX4">
         <v>1.944212153973695</v>
       </c>
-      <c r="GJ4">
+      <c r="KY4">
         <v>1.944212153973695</v>
       </c>
-      <c r="GK4">
+      <c r="KZ4">
         <v>1.952089136819041</v>
       </c>
-      <c r="GL4">
-        <v>1.952089136818586</v>
-      </c>
-      <c r="GM4">
+      <c r="LA4">
+        <v>1.952089136819041</v>
+      </c>
+      <c r="LB4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GN4">
+      <c r="LC4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GO4">
+      <c r="LD4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GP4">
+      <c r="LE4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GQ4">
+      <c r="LF4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GR4">
+      <c r="LG4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GS4">
+      <c r="LH4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GT4">
+      <c r="LI4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GU4">
+      <c r="LJ4">
         <v>3.842115817237755</v>
       </c>
-      <c r="GV4">
-        <v>3.842115817237755</v>
-      </c>
-      <c r="GW4">
+      <c r="LK4">
         <v>3.842043057530418</v>
       </c>
-      <c r="GX4">
+      <c r="LL4">
         <v>3.842043057530418</v>
       </c>
-      <c r="GY4">
+      <c r="LM4">
         <v>3.842043057530418</v>
       </c>
-      <c r="GZ4">
+      <c r="LN4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HA4">
+      <c r="LO4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HB4">
+      <c r="LP4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HC4">
+      <c r="LQ4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HD4">
+      <c r="LR4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HE4">
+      <c r="LS4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HF4">
+      <c r="LT4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HG4">
+      <c r="LU4">
         <v>3.830677147427423</v>
       </c>
-      <c r="HH4">
-        <v>3.830604387793073</v>
-      </c>
-      <c r="HI4">
-        <v>3.830604387793073</v>
+      <c r="LV4">
+        <v>3.830677147427423</v>
+      </c>
+      <c r="LW4">
+        <v>3.830604387793301</v>
+      </c>
+      <c r="LX4">
+        <v>3.830604387793301</v>
       </c>
     </row>
   </sheetData>
